--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_8_8.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_8_8.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-81289.16841566094</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14015837.94718544</v>
+        <v>11848492.60035744</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30521977.82306018</v>
+        <v>23663521.31051881</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-7.824349685974454e-11</v>
+        <v>3404793.448092149</v>
       </c>
     </row>
     <row r="11">
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>123.666686</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>134.395403</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>131.5125593742073</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>135.4526393489149</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>124.4934058536024</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>134.9951249905467</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>134.2848039479189</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8289,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>123.666686</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>134.395403</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>131.5125593742073</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>135.4526393489149</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>124.4934058536024</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>134.9951249905467</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>134.2848039479189</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>123.666686</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>134.395403</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8608,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>131.5125593742073</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>135.4526393489149</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>124.4934058536024</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>134.9951249905467</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>134.2848039479189</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>89.76036546048012</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8708,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>106.3601098520762</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>71.99338681190339</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>46.07750428554137</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>16.33620635813519</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>26.18458021020076</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>66.6665433882805</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8845,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>72.51491935620855</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>63.34145120781625</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>63.5757640821251</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>54.32560202794129</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>70.18380116939908</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>78.82751991675428</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>89.76036546048012</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8936,19 +8938,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>41.28099931752746</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>52.11368889882763</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>106.3601098520762</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>71.99338681190339</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>46.07750428554137</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>16.33620635813517</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>26.18458021020075</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>66.6665433882805</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9082,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>72.51491935620854</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>63.34145120781625</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>63.57576408212509</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>54.32560202794129</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>70.18380116939908</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>78.82751991675428</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9319,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>72.51491935620854</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -9337,10 +9339,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>78.82751991675428</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>89.76036546048012</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9419,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>106.3601098520762</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>71.99338681190339</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>46.07750428554137</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>16.33620635813517</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9498,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>66.6665433882805</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9556,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>72.51491935620854</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>63.34145120781625</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>63.57576408212509</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>54.32560202794129</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>70.18380116939908</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>78.82751991675428</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>89.76036546048012</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9738,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9793,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>72.51491935620854</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -9811,10 +9813,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>78.82751991675428</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9872,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>89.76036546048012</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>84.55776703287157</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9893,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>106.3601098520762</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>71.99338681190339</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>46.07750428554137</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>16.33620635813517</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>26.18458021020075</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>66.6665433882805</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10030,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>72.51491935620854</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>63.57576408212509</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>54.32560202794129</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>70.18380116939908</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>78.82751991675428</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>89.76036546048012</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10188,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>71.99338681190339</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10209,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>66.6665433882805</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10267,13 +10269,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>72.51491935620854</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>63.34145120781625</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -10288,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>89.76036546048012</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>68.55874285947689</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>66.6665433882805</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10504,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>72.51491935620854</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>89.76036546048012</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10604,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>106.3601098520762</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10659,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10741,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>72.51491935620854</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>63.34145120781625</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>63.57576408212509</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>54.32560202794129</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>70.18380116939908</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>78.82751991675428</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>89.76036546048012</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10841,10 +10843,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>106.3601098520762</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,13 +10901,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>71.99338681190339</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>16.33620635813517</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10978,13 +10980,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>72.51491935620854</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>63.34145120781625</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -10993,13 +10995,13 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>70.18380116939908</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>78.82751991675428</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>89.76036546048012</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>84.55776703287157</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11078,10 +11080,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>106.3601098520762</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11215,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>72.51491935620854</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>63.34145120781625</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>54.32560202794129</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>70.18380116939908</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>78.82751991675428</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>77.82547842006969</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>64.88504985279644</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11397,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,10 +11454,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>65.18652165197315</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -11473,7 +11475,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22568,31 +22570,31 @@
         <v>205.224307868124</v>
       </c>
       <c r="J2" t="n">
-        <v>176.5197569135191</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K2" t="n">
-        <v>214.587604768856</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>229.8722545957376</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>224.5875773965909</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>223.6777370066762</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>224.3457561361446</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>225.4521708613878</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>216.7480476275882</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>210.1958993687788</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
         <v>205.8649517235392</v>
@@ -22644,34 +22646,34 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I3" t="n">
-        <v>97.03432049999999</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J3" t="n">
-        <v>123.666686</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>134.395403</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>135.0905202853774</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>139.0313383333333</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>130.625047228972</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>136.482229733871</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>142.0375163648649</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
         <v>168.9616139056444</v>
@@ -22726,28 +22728,28 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J4" t="n">
-        <v>123.8205359034112</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
-        <v>125.787926716272</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L4" t="n">
-        <v>131.5125593742073</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>135.4526393489149</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>124.4934058536024</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>134.9951249905467</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>134.2848039479189</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>147.7173765887097</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R4" t="n">
         <v>173.3911476697823</v>
@@ -22881,34 +22883,34 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I6" t="n">
-        <v>97.03432049999999</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J6" t="n">
-        <v>123.666686</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>134.395403</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>135.0905202853774</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>138.5806830739679</v>
       </c>
       <c r="N6" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>139.0313383333333</v>
       </c>
       <c r="P6" t="n">
-        <v>130.625047228972</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>136.482229733871</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>142.0375163648649</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S6" t="n">
         <v>168.9616139056444</v>
@@ -22963,28 +22965,28 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J7" t="n">
-        <v>123.8205359034112</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
-        <v>125.787926716272</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L7" t="n">
-        <v>131.5125593742073</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>135.4526393489149</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>124.4934058536024</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>134.9951249905467</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>134.2848039479189</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>147.7173765887097</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R7" t="n">
         <v>173.3911476697823</v>
@@ -23042,31 +23044,31 @@
         <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
-        <v>176.5197569135191</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K8" t="n">
-        <v>214.587604768856</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>229.8722545957376</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>224.5875773965909</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>223.6777370066762</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>224.3457561361446</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>225.4521708613878</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>216.7480476275882</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>210.1958993687788</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
         <v>205.8649517235392</v>
@@ -23118,34 +23120,34 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
-        <v>97.03432049999999</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J9" t="n">
-        <v>123.666686</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>134.395403</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>135.0905202853774</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>139.0313383333333</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>130.625047228972</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.482229733871</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>142.0375163648649</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
         <v>168.9616139056444</v>
@@ -23200,28 +23202,28 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J10" t="n">
-        <v>123.8205359034112</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
-        <v>125.787926716272</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L10" t="n">
-        <v>131.5125593742073</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>135.4526393489149</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>124.4934058536024</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>134.9951249905467</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>134.2848039479189</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>147.7173765887097</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R10" t="n">
         <v>173.3911476697823</v>
@@ -23270,49 +23272,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>414.8547654038309</v>
+        <v>413.8325483879333</v>
       </c>
       <c r="H11" t="n">
-        <v>338.1439033881534</v>
+        <v>327.6751233740921</v>
       </c>
       <c r="I11" t="n">
-        <v>205.224307868124</v>
+        <v>165.8152863627317</v>
       </c>
       <c r="J11" t="n">
-        <v>176.5197569135191</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>214.587604768856</v>
+        <v>84.55776703287157</v>
       </c>
       <c r="L11" t="n">
-        <v>229.8722545957376</v>
+        <v>68.55874285947689</v>
       </c>
       <c r="M11" t="n">
-        <v>224.5875773965909</v>
+        <v>45.0952138038613</v>
       </c>
       <c r="N11" t="n">
-        <v>223.6777370066762</v>
+        <v>41.28099931752746</v>
       </c>
       <c r="O11" t="n">
-        <v>224.3457561361446</v>
+        <v>52.11368889882766</v>
       </c>
       <c r="P11" t="n">
-        <v>225.4521708613878</v>
+        <v>78.45608620404292</v>
       </c>
       <c r="Q11" t="n">
-        <v>216.7480476275882</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>210.1958993687788</v>
+        <v>77.63898307599939</v>
       </c>
       <c r="S11" t="n">
-        <v>205.8649517235392</v>
+        <v>182.5711814737726</v>
       </c>
       <c r="T11" t="n">
-        <v>222.9651171964204</v>
+        <v>218.4903622093286</v>
       </c>
       <c r="U11" t="n">
-        <v>251.4777635765444</v>
+        <v>251.3959862152726</v>
       </c>
       <c r="V11" t="n">
         <v>328.5332215225193</v>
@@ -23349,49 +23351,49 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0232102050423</v>
+        <v>135.4762758837533</v>
       </c>
       <c r="H12" t="n">
-        <v>110.4625155221328</v>
+        <v>105.1802814191576</v>
       </c>
       <c r="I12" t="n">
-        <v>97.03432049999999</v>
+        <v>67.67269073688161</v>
       </c>
       <c r="J12" t="n">
-        <v>123.666686</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>134.395403</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>135.0905202853774</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>139.0313383333333</v>
+        <v>8.901750057177253</v>
       </c>
       <c r="P12" t="n">
-        <v>130.625047228972</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>136.482229733871</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>142.0375163648649</v>
+        <v>60.73707514632421</v>
       </c>
       <c r="S12" t="n">
-        <v>168.9616139056444</v>
+        <v>158.8025487711757</v>
       </c>
       <c r="T12" t="n">
-        <v>198.3825319082687</v>
+        <v>196.1780027799153</v>
       </c>
       <c r="U12" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6211945460638</v>
       </c>
       <c r="V12" t="n">
         <v>231.9087310396551</v>
@@ -23428,49 +23430,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>167.8895889301081</v>
+        <v>167.431057567854</v>
       </c>
       <c r="H13" t="n">
-        <v>161.6340720089168</v>
+        <v>157.5573113517852</v>
       </c>
       <c r="I13" t="n">
-        <v>153.7585467974036</v>
+        <v>139.9692581943449</v>
       </c>
       <c r="J13" t="n">
-        <v>123.8205359034112</v>
+        <v>56.42067761641638</v>
       </c>
       <c r="K13" t="n">
-        <v>125.787926716272</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>131.5125593742073</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>135.4526393489149</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>124.4934058536024</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>134.9951249905467</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>134.2848039479189</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>147.7173765887097</v>
+        <v>41.36495098746442</v>
       </c>
       <c r="R13" t="n">
-        <v>173.3911476697823</v>
+        <v>152.7739102360676</v>
       </c>
       <c r="S13" t="n">
-        <v>222.3574069614225</v>
+        <v>214.366455857413</v>
       </c>
       <c r="T13" t="n">
-        <v>228.3324659915077</v>
+        <v>226.3732865346039</v>
       </c>
       <c r="U13" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0272595894867</v>
       </c>
       <c r="V13" t="n">
         <v>252.9363510669392</v>
@@ -23507,49 +23509,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>414.8547654038309</v>
+        <v>413.8325483879333</v>
       </c>
       <c r="H14" t="n">
-        <v>338.1439033881534</v>
+        <v>327.6751233740921</v>
       </c>
       <c r="I14" t="n">
-        <v>205.224307868124</v>
+        <v>165.8152863627317</v>
       </c>
       <c r="J14" t="n">
-        <v>176.5197569135191</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>214.587604768856</v>
+        <v>84.55776703287157</v>
       </c>
       <c r="L14" t="n">
-        <v>229.8722545957376</v>
+        <v>68.55874285947689</v>
       </c>
       <c r="M14" t="n">
-        <v>224.5875773965909</v>
+        <v>45.0952138038613</v>
       </c>
       <c r="N14" t="n">
-        <v>223.6777370066762</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>224.3457561361446</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>225.4521708613878</v>
+        <v>78.45608620404292</v>
       </c>
       <c r="Q14" t="n">
-        <v>216.7480476275882</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>210.1958993687788</v>
+        <v>77.63898307599939</v>
       </c>
       <c r="S14" t="n">
-        <v>205.8649517235392</v>
+        <v>182.5711814737726</v>
       </c>
       <c r="T14" t="n">
-        <v>222.9651171964204</v>
+        <v>218.4903622093286</v>
       </c>
       <c r="U14" t="n">
-        <v>251.4777635765444</v>
+        <v>251.3959862152726</v>
       </c>
       <c r="V14" t="n">
         <v>328.5332215225193</v>
@@ -23586,49 +23588,49 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0232102050423</v>
+        <v>135.4762758837533</v>
       </c>
       <c r="H15" t="n">
-        <v>110.4625155221328</v>
+        <v>105.1802814191576</v>
       </c>
       <c r="I15" t="n">
-        <v>97.03432049999999</v>
+        <v>67.67269073688161</v>
       </c>
       <c r="J15" t="n">
-        <v>123.666686</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>134.395403</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>135.0905202853774</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>139.0313383333333</v>
+        <v>8.901750057177253</v>
       </c>
       <c r="P15" t="n">
-        <v>130.625047228972</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>136.482229733871</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>142.0375163648649</v>
+        <v>60.73707514632421</v>
       </c>
       <c r="S15" t="n">
-        <v>168.9616139056444</v>
+        <v>158.8025487711757</v>
       </c>
       <c r="T15" t="n">
-        <v>198.3825319082687</v>
+        <v>196.1780027799153</v>
       </c>
       <c r="U15" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6211945460638</v>
       </c>
       <c r="V15" t="n">
         <v>231.9087310396551</v>
@@ -23665,49 +23667,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>167.8895889301081</v>
+        <v>167.431057567854</v>
       </c>
       <c r="H16" t="n">
-        <v>161.6340720089168</v>
+        <v>157.5573113517852</v>
       </c>
       <c r="I16" t="n">
-        <v>153.7585467974036</v>
+        <v>139.9692581943449</v>
       </c>
       <c r="J16" t="n">
-        <v>123.8205359034112</v>
+        <v>56.42067761641638</v>
       </c>
       <c r="K16" t="n">
-        <v>125.787926716272</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>131.5125593742073</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>135.4526393489149</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>124.4934058536024</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>134.9951249905467</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>134.2848039479189</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>147.7173765887097</v>
+        <v>41.36495098746441</v>
       </c>
       <c r="R16" t="n">
-        <v>173.3911476697823</v>
+        <v>152.7739102360676</v>
       </c>
       <c r="S16" t="n">
-        <v>222.3574069614225</v>
+        <v>214.366455857413</v>
       </c>
       <c r="T16" t="n">
-        <v>228.3324659915077</v>
+        <v>226.3732865346039</v>
       </c>
       <c r="U16" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0272595894867</v>
       </c>
       <c r="V16" t="n">
         <v>252.9363510669392</v>
@@ -23744,49 +23746,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
-        <v>414.8547654038309</v>
+        <v>413.8325483879333</v>
       </c>
       <c r="H17" t="n">
-        <v>338.1439033881534</v>
+        <v>327.6751233740921</v>
       </c>
       <c r="I17" t="n">
-        <v>205.224307868124</v>
+        <v>165.8152863627317</v>
       </c>
       <c r="J17" t="n">
-        <v>176.5197569135191</v>
+        <v>89.76036546048012</v>
       </c>
       <c r="K17" t="n">
-        <v>214.587604768856</v>
+        <v>84.55776703287157</v>
       </c>
       <c r="L17" t="n">
-        <v>229.8722545957376</v>
+        <v>68.55874285947689</v>
       </c>
       <c r="M17" t="n">
-        <v>224.5875773965909</v>
+        <v>45.0952138038613</v>
       </c>
       <c r="N17" t="n">
-        <v>223.6777370066762</v>
+        <v>41.28099931752746</v>
       </c>
       <c r="O17" t="n">
-        <v>224.3457561361446</v>
+        <v>52.11368889882763</v>
       </c>
       <c r="P17" t="n">
-        <v>225.4521708613878</v>
+        <v>78.45608620404292</v>
       </c>
       <c r="Q17" t="n">
-        <v>216.7480476275882</v>
+        <v>106.3601098520762</v>
       </c>
       <c r="R17" t="n">
-        <v>210.1958993687788</v>
+        <v>145.9840597439011</v>
       </c>
       <c r="S17" t="n">
-        <v>205.8649517235392</v>
+        <v>182.5711814737726</v>
       </c>
       <c r="T17" t="n">
-        <v>222.9651171964204</v>
+        <v>218.4903622093286</v>
       </c>
       <c r="U17" t="n">
-        <v>251.4777635765444</v>
+        <v>251.3959862152726</v>
       </c>
       <c r="V17" t="n">
         <v>328.5332215225193</v>
@@ -23823,49 +23825,49 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>136.0232102050423</v>
+        <v>135.4762758837533</v>
       </c>
       <c r="H18" t="n">
-        <v>110.4625155221328</v>
+        <v>105.1802814191576</v>
       </c>
       <c r="I18" t="n">
-        <v>97.03432049999999</v>
+        <v>78.20346777140992</v>
       </c>
       <c r="J18" t="n">
-        <v>123.666686</v>
+        <v>71.99338681190339</v>
       </c>
       <c r="K18" t="n">
-        <v>134.395403</v>
+        <v>46.07750428554137</v>
       </c>
       <c r="L18" t="n">
-        <v>135.0905202853774</v>
+        <v>16.33620635813517</v>
       </c>
       <c r="M18" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>139.0313383333333</v>
+        <v>8.901750057177253</v>
       </c>
       <c r="P18" t="n">
-        <v>130.625047228972</v>
+        <v>26.18458021020075</v>
       </c>
       <c r="Q18" t="n">
-        <v>136.482229733871</v>
+        <v>66.6665433882805</v>
       </c>
       <c r="R18" t="n">
-        <v>142.0375163648649</v>
+        <v>108.0796117500979</v>
       </c>
       <c r="S18" t="n">
-        <v>168.9616139056444</v>
+        <v>158.8025487711757</v>
       </c>
       <c r="T18" t="n">
-        <v>198.3825319082687</v>
+        <v>196.1780027799153</v>
       </c>
       <c r="U18" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6211945460638</v>
       </c>
       <c r="V18" t="n">
         <v>231.9087310396551</v>
@@ -23902,49 +23904,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
-        <v>167.8895889301081</v>
+        <v>167.431057567854</v>
       </c>
       <c r="H19" t="n">
-        <v>161.6340720089168</v>
+        <v>157.5573113517852</v>
       </c>
       <c r="I19" t="n">
-        <v>153.7585467974036</v>
+        <v>139.9692581943449</v>
       </c>
       <c r="J19" t="n">
-        <v>123.8205359034112</v>
+        <v>56.42067761641638</v>
       </c>
       <c r="K19" t="n">
-        <v>125.787926716272</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>131.5125593742073</v>
+        <v>63.34145120781625</v>
       </c>
       <c r="M19" t="n">
-        <v>135.4526393489149</v>
+        <v>63.57576408212509</v>
       </c>
       <c r="N19" t="n">
-        <v>124.4934058536024</v>
+        <v>54.32560202794129</v>
       </c>
       <c r="O19" t="n">
-        <v>134.9951249905467</v>
+        <v>70.18380116939908</v>
       </c>
       <c r="P19" t="n">
-        <v>134.2848039479189</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>147.7173765887097</v>
+        <v>41.36495098746441</v>
       </c>
       <c r="R19" t="n">
-        <v>173.3911476697823</v>
+        <v>152.7739102360676</v>
       </c>
       <c r="S19" t="n">
-        <v>222.3574069614225</v>
+        <v>214.366455857413</v>
       </c>
       <c r="T19" t="n">
-        <v>228.3324659915077</v>
+        <v>226.3732865346039</v>
       </c>
       <c r="U19" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0272595894867</v>
       </c>
       <c r="V19" t="n">
         <v>252.9363510669392</v>
@@ -23981,49 +23983,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>414.8547654038309</v>
+        <v>413.8325483879333</v>
       </c>
       <c r="H20" t="n">
-        <v>338.1439033881534</v>
+        <v>327.6751233740921</v>
       </c>
       <c r="I20" t="n">
-        <v>205.224307868124</v>
+        <v>165.8152863627317</v>
       </c>
       <c r="J20" t="n">
-        <v>176.5197569135191</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>214.587604768856</v>
+        <v>84.55776703287157</v>
       </c>
       <c r="L20" t="n">
-        <v>229.8722545957376</v>
+        <v>68.55874285947689</v>
       </c>
       <c r="M20" t="n">
-        <v>224.5875773965909</v>
+        <v>45.0952138038613</v>
       </c>
       <c r="N20" t="n">
-        <v>223.6777370066762</v>
+        <v>41.28099931752746</v>
       </c>
       <c r="O20" t="n">
-        <v>224.3457561361446</v>
+        <v>52.11368889882763</v>
       </c>
       <c r="P20" t="n">
-        <v>225.4521708613878</v>
+        <v>78.45608620404292</v>
       </c>
       <c r="Q20" t="n">
-        <v>216.7480476275882</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>210.1958993687788</v>
+        <v>77.63898307599939</v>
       </c>
       <c r="S20" t="n">
-        <v>205.8649517235392</v>
+        <v>182.5711814737726</v>
       </c>
       <c r="T20" t="n">
-        <v>222.9651171964204</v>
+        <v>218.4903622093286</v>
       </c>
       <c r="U20" t="n">
-        <v>251.4777635765444</v>
+        <v>251.3959862152726</v>
       </c>
       <c r="V20" t="n">
         <v>328.5332215225193</v>
@@ -24060,49 +24062,49 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0232102050423</v>
+        <v>135.4762758837533</v>
       </c>
       <c r="H21" t="n">
-        <v>110.4625155221328</v>
+        <v>105.1802814191576</v>
       </c>
       <c r="I21" t="n">
-        <v>97.03432049999999</v>
+        <v>67.67269073688161</v>
       </c>
       <c r="J21" t="n">
-        <v>123.666686</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>134.395403</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>135.0905202853774</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>139.0313383333333</v>
+        <v>8.901750057177253</v>
       </c>
       <c r="P21" t="n">
-        <v>130.625047228972</v>
+        <v>26.18458021020075</v>
       </c>
       <c r="Q21" t="n">
-        <v>136.482229733871</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>142.0375163648649</v>
+        <v>60.73707514632421</v>
       </c>
       <c r="S21" t="n">
-        <v>168.9616139056444</v>
+        <v>158.8025487711757</v>
       </c>
       <c r="T21" t="n">
-        <v>198.3825319082687</v>
+        <v>196.1780027799153</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6211945460638</v>
       </c>
       <c r="V21" t="n">
         <v>231.9087310396551</v>
@@ -24139,49 +24141,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>167.8895889301081</v>
+        <v>167.431057567854</v>
       </c>
       <c r="H22" t="n">
-        <v>161.6340720089168</v>
+        <v>157.5573113517852</v>
       </c>
       <c r="I22" t="n">
-        <v>153.7585467974036</v>
+        <v>139.9692581943449</v>
       </c>
       <c r="J22" t="n">
-        <v>123.8205359034112</v>
+        <v>56.42067761641638</v>
       </c>
       <c r="K22" t="n">
-        <v>125.787926716272</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>131.5125593742073</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>135.4526393489149</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>124.4934058536024</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>134.9951249905467</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>134.2848039479189</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>147.7173765887097</v>
+        <v>41.36495098746441</v>
       </c>
       <c r="R22" t="n">
-        <v>173.3911476697823</v>
+        <v>152.7739102360676</v>
       </c>
       <c r="S22" t="n">
-        <v>222.3574069614225</v>
+        <v>214.366455857413</v>
       </c>
       <c r="T22" t="n">
-        <v>228.3324659915077</v>
+        <v>226.3732865346039</v>
       </c>
       <c r="U22" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0272595894867</v>
       </c>
       <c r="V22" t="n">
         <v>252.9363510669392</v>
@@ -24218,49 +24220,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>414.8547654038309</v>
+        <v>413.8325483879333</v>
       </c>
       <c r="H23" t="n">
-        <v>338.1439033881534</v>
+        <v>327.6751233740921</v>
       </c>
       <c r="I23" t="n">
-        <v>205.224307868124</v>
+        <v>165.8152863627317</v>
       </c>
       <c r="J23" t="n">
-        <v>176.5197569135191</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>214.587604768856</v>
+        <v>84.55776703287157</v>
       </c>
       <c r="L23" t="n">
-        <v>229.8722545957376</v>
+        <v>68.55874285947689</v>
       </c>
       <c r="M23" t="n">
-        <v>224.5875773965909</v>
+        <v>45.0952138038613</v>
       </c>
       <c r="N23" t="n">
-        <v>223.6777370066762</v>
+        <v>41.28099931752746</v>
       </c>
       <c r="O23" t="n">
-        <v>224.3457561361446</v>
+        <v>52.11368889882763</v>
       </c>
       <c r="P23" t="n">
-        <v>225.4521708613878</v>
+        <v>78.45608620404292</v>
       </c>
       <c r="Q23" t="n">
-        <v>216.7480476275882</v>
+        <v>106.3601098520762</v>
       </c>
       <c r="R23" t="n">
-        <v>210.1958993687788</v>
+        <v>77.63898307599939</v>
       </c>
       <c r="S23" t="n">
-        <v>205.8649517235392</v>
+        <v>182.5711814737726</v>
       </c>
       <c r="T23" t="n">
-        <v>222.9651171964204</v>
+        <v>218.4903622093286</v>
       </c>
       <c r="U23" t="n">
-        <v>251.4777635765444</v>
+        <v>251.3959862152726</v>
       </c>
       <c r="V23" t="n">
         <v>328.5332215225193</v>
@@ -24297,49 +24299,49 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>136.0232102050423</v>
+        <v>135.4762758837533</v>
       </c>
       <c r="H24" t="n">
-        <v>110.4625155221328</v>
+        <v>105.1802814191576</v>
       </c>
       <c r="I24" t="n">
-        <v>97.03432049999999</v>
+        <v>78.20346777140992</v>
       </c>
       <c r="J24" t="n">
-        <v>123.666686</v>
+        <v>71.99338681190339</v>
       </c>
       <c r="K24" t="n">
-        <v>134.395403</v>
+        <v>46.07750428554137</v>
       </c>
       <c r="L24" t="n">
-        <v>135.0905202853774</v>
+        <v>16.33620635813517</v>
       </c>
       <c r="M24" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>139.0313383333333</v>
+        <v>8.901750057177253</v>
       </c>
       <c r="P24" t="n">
-        <v>130.625047228972</v>
+        <v>26.18458021020075</v>
       </c>
       <c r="Q24" t="n">
-        <v>136.482229733871</v>
+        <v>66.6665433882805</v>
       </c>
       <c r="R24" t="n">
-        <v>142.0375163648649</v>
+        <v>60.73707514632421</v>
       </c>
       <c r="S24" t="n">
-        <v>168.9616139056444</v>
+        <v>158.8025487711757</v>
       </c>
       <c r="T24" t="n">
-        <v>198.3825319082687</v>
+        <v>196.1780027799153</v>
       </c>
       <c r="U24" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6211945460638</v>
       </c>
       <c r="V24" t="n">
         <v>231.9087310396551</v>
@@ -24376,49 +24378,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
-        <v>167.8895889301081</v>
+        <v>167.431057567854</v>
       </c>
       <c r="H25" t="n">
-        <v>161.6340720089168</v>
+        <v>157.5573113517852</v>
       </c>
       <c r="I25" t="n">
-        <v>153.7585467974036</v>
+        <v>139.9692581943449</v>
       </c>
       <c r="J25" t="n">
-        <v>123.8205359034112</v>
+        <v>56.42067761641638</v>
       </c>
       <c r="K25" t="n">
-        <v>125.787926716272</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>131.5125593742073</v>
+        <v>63.34145120781625</v>
       </c>
       <c r="M25" t="n">
-        <v>135.4526393489149</v>
+        <v>63.57576408212509</v>
       </c>
       <c r="N25" t="n">
-        <v>124.4934058536024</v>
+        <v>54.32560202794129</v>
       </c>
       <c r="O25" t="n">
-        <v>134.9951249905467</v>
+        <v>70.18380116939908</v>
       </c>
       <c r="P25" t="n">
-        <v>134.2848039479189</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>147.7173765887097</v>
+        <v>41.36495098746441</v>
       </c>
       <c r="R25" t="n">
-        <v>173.3911476697823</v>
+        <v>152.7739102360676</v>
       </c>
       <c r="S25" t="n">
-        <v>222.3574069614225</v>
+        <v>214.366455857413</v>
       </c>
       <c r="T25" t="n">
-        <v>228.3324659915077</v>
+        <v>226.3732865346039</v>
       </c>
       <c r="U25" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0272595894867</v>
       </c>
       <c r="V25" t="n">
         <v>252.9363510669392</v>
@@ -24455,49 +24457,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>414.8547654038309</v>
+        <v>413.8325483879333</v>
       </c>
       <c r="H26" t="n">
-        <v>338.1439033881534</v>
+        <v>327.6751233740921</v>
       </c>
       <c r="I26" t="n">
-        <v>205.224307868124</v>
+        <v>165.8152863627317</v>
       </c>
       <c r="J26" t="n">
-        <v>176.5197569135191</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>214.587604768856</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>229.8722545957376</v>
+        <v>68.55874285947689</v>
       </c>
       <c r="M26" t="n">
-        <v>224.5875773965909</v>
+        <v>45.0952138038613</v>
       </c>
       <c r="N26" t="n">
-        <v>223.6777370066762</v>
+        <v>41.28099931752746</v>
       </c>
       <c r="O26" t="n">
-        <v>224.3457561361446</v>
+        <v>52.11368889882763</v>
       </c>
       <c r="P26" t="n">
-        <v>225.4521708613878</v>
+        <v>78.45608620404292</v>
       </c>
       <c r="Q26" t="n">
-        <v>216.7480476275882</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>210.1958993687788</v>
+        <v>77.63898307599939</v>
       </c>
       <c r="S26" t="n">
-        <v>205.8649517235392</v>
+        <v>182.5711814737726</v>
       </c>
       <c r="T26" t="n">
-        <v>222.9651171964204</v>
+        <v>218.4903622093286</v>
       </c>
       <c r="U26" t="n">
-        <v>251.4777635765444</v>
+        <v>251.3959862152726</v>
       </c>
       <c r="V26" t="n">
         <v>328.5332215225193</v>
@@ -24534,49 +24536,49 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>136.0232102050423</v>
+        <v>135.4762758837533</v>
       </c>
       <c r="H27" t="n">
-        <v>110.4625155221328</v>
+        <v>105.1802814191576</v>
       </c>
       <c r="I27" t="n">
-        <v>97.03432049999999</v>
+        <v>67.67269073688161</v>
       </c>
       <c r="J27" t="n">
-        <v>123.666686</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>134.395403</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>135.0905202853774</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>139.0313383333333</v>
+        <v>8.901750057177253</v>
       </c>
       <c r="P27" t="n">
-        <v>130.625047228972</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>136.482229733871</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>142.0375163648649</v>
+        <v>60.73707514632421</v>
       </c>
       <c r="S27" t="n">
-        <v>168.9616139056444</v>
+        <v>158.8025487711757</v>
       </c>
       <c r="T27" t="n">
-        <v>198.3825319082687</v>
+        <v>196.1780027799153</v>
       </c>
       <c r="U27" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6211945460638</v>
       </c>
       <c r="V27" t="n">
         <v>231.9087310396551</v>
@@ -24613,49 +24615,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>167.8895889301081</v>
+        <v>167.431057567854</v>
       </c>
       <c r="H28" t="n">
-        <v>161.6340720089168</v>
+        <v>157.5573113517852</v>
       </c>
       <c r="I28" t="n">
-        <v>153.7585467974036</v>
+        <v>139.9692581943449</v>
       </c>
       <c r="J28" t="n">
-        <v>123.8205359034112</v>
+        <v>56.42067761641638</v>
       </c>
       <c r="K28" t="n">
-        <v>125.787926716272</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>131.5125593742073</v>
+        <v>63.34145120781625</v>
       </c>
       <c r="M28" t="n">
-        <v>135.4526393489149</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>124.4934058536024</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>134.9951249905467</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>134.2848039479189</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>147.7173765887097</v>
+        <v>41.36495098746441</v>
       </c>
       <c r="R28" t="n">
-        <v>173.3911476697823</v>
+        <v>152.7739102360676</v>
       </c>
       <c r="S28" t="n">
-        <v>222.3574069614225</v>
+        <v>214.366455857413</v>
       </c>
       <c r="T28" t="n">
-        <v>228.3324659915077</v>
+        <v>226.3732865346039</v>
       </c>
       <c r="U28" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0272595894867</v>
       </c>
       <c r="V28" t="n">
         <v>252.9363510669392</v>
@@ -24692,49 +24694,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>414.8547654038309</v>
+        <v>413.8325483879333</v>
       </c>
       <c r="H29" t="n">
-        <v>338.1439033881534</v>
+        <v>327.6751233740921</v>
       </c>
       <c r="I29" t="n">
-        <v>205.224307868124</v>
+        <v>165.8152863627317</v>
       </c>
       <c r="J29" t="n">
-        <v>176.5197569135191</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>214.587604768856</v>
+        <v>84.55776703287157</v>
       </c>
       <c r="L29" t="n">
-        <v>229.8722545957376</v>
+        <v>68.55874285947689</v>
       </c>
       <c r="M29" t="n">
-        <v>224.5875773965909</v>
+        <v>45.0952138038613</v>
       </c>
       <c r="N29" t="n">
-        <v>223.6777370066762</v>
+        <v>41.28099931752746</v>
       </c>
       <c r="O29" t="n">
-        <v>224.3457561361446</v>
+        <v>52.11368889882763</v>
       </c>
       <c r="P29" t="n">
-        <v>225.4521708613878</v>
+        <v>78.45608620404292</v>
       </c>
       <c r="Q29" t="n">
-        <v>216.7480476275882</v>
+        <v>106.3601098520762</v>
       </c>
       <c r="R29" t="n">
-        <v>210.1958993687788</v>
+        <v>145.9840597439011</v>
       </c>
       <c r="S29" t="n">
-        <v>205.8649517235392</v>
+        <v>182.5711814737726</v>
       </c>
       <c r="T29" t="n">
-        <v>222.9651171964204</v>
+        <v>218.4903622093286</v>
       </c>
       <c r="U29" t="n">
-        <v>251.4777635765444</v>
+        <v>251.3959862152726</v>
       </c>
       <c r="V29" t="n">
         <v>328.5332215225193</v>
@@ -24771,49 +24773,49 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>136.0232102050423</v>
+        <v>135.4762758837533</v>
       </c>
       <c r="H30" t="n">
-        <v>110.4625155221328</v>
+        <v>105.1802814191576</v>
       </c>
       <c r="I30" t="n">
-        <v>97.03432049999999</v>
+        <v>78.20346777140992</v>
       </c>
       <c r="J30" t="n">
-        <v>123.666686</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>134.395403</v>
+        <v>46.07750428554137</v>
       </c>
       <c r="L30" t="n">
-        <v>135.0905202853774</v>
+        <v>16.33620635813517</v>
       </c>
       <c r="M30" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>139.0313383333333</v>
+        <v>8.901750057177253</v>
       </c>
       <c r="P30" t="n">
-        <v>130.625047228972</v>
+        <v>26.18458021020075</v>
       </c>
       <c r="Q30" t="n">
-        <v>136.482229733871</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>142.0375163648649</v>
+        <v>108.0796117500979</v>
       </c>
       <c r="S30" t="n">
-        <v>168.9616139056444</v>
+        <v>158.8025487711757</v>
       </c>
       <c r="T30" t="n">
-        <v>198.3825319082687</v>
+        <v>196.1780027799153</v>
       </c>
       <c r="U30" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6211945460638</v>
       </c>
       <c r="V30" t="n">
         <v>231.9087310396551</v>
@@ -24850,49 +24852,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>167.8895889301081</v>
+        <v>167.431057567854</v>
       </c>
       <c r="H31" t="n">
-        <v>161.6340720089168</v>
+        <v>157.5573113517852</v>
       </c>
       <c r="I31" t="n">
-        <v>153.7585467974036</v>
+        <v>139.9692581943449</v>
       </c>
       <c r="J31" t="n">
-        <v>123.8205359034112</v>
+        <v>56.42067761641638</v>
       </c>
       <c r="K31" t="n">
-        <v>125.787926716272</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>131.5125593742073</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>135.4526393489149</v>
+        <v>63.57576408212509</v>
       </c>
       <c r="N31" t="n">
-        <v>124.4934058536024</v>
+        <v>54.32560202794129</v>
       </c>
       <c r="O31" t="n">
-        <v>134.9951249905467</v>
+        <v>70.18380116939908</v>
       </c>
       <c r="P31" t="n">
-        <v>134.2848039479189</v>
+        <v>78.82751991675428</v>
       </c>
       <c r="Q31" t="n">
-        <v>147.7173765887097</v>
+        <v>41.36495098746441</v>
       </c>
       <c r="R31" t="n">
-        <v>173.3911476697823</v>
+        <v>152.7739102360676</v>
       </c>
       <c r="S31" t="n">
-        <v>222.3574069614225</v>
+        <v>214.366455857413</v>
       </c>
       <c r="T31" t="n">
-        <v>228.3324659915077</v>
+        <v>226.3732865346039</v>
       </c>
       <c r="U31" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0272595894867</v>
       </c>
       <c r="V31" t="n">
         <v>252.9363510669392</v>
@@ -24929,49 +24931,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>414.8547654038309</v>
+        <v>413.8325483879333</v>
       </c>
       <c r="H32" t="n">
-        <v>338.1439033881534</v>
+        <v>327.6751233740921</v>
       </c>
       <c r="I32" t="n">
-        <v>205.224307868124</v>
+        <v>165.8152863627317</v>
       </c>
       <c r="J32" t="n">
-        <v>176.5197569135191</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>214.587604768856</v>
+        <v>84.55776703287157</v>
       </c>
       <c r="L32" t="n">
-        <v>229.8722545957376</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>224.5875773965909</v>
+        <v>45.0952138038613</v>
       </c>
       <c r="N32" t="n">
-        <v>223.6777370066762</v>
+        <v>41.28099931752746</v>
       </c>
       <c r="O32" t="n">
-        <v>224.3457561361446</v>
+        <v>52.11368889882763</v>
       </c>
       <c r="P32" t="n">
-        <v>225.4521708613878</v>
+        <v>78.45608620404292</v>
       </c>
       <c r="Q32" t="n">
-        <v>216.7480476275882</v>
+        <v>106.3601098520762</v>
       </c>
       <c r="R32" t="n">
-        <v>210.1958993687788</v>
+        <v>77.63898307599939</v>
       </c>
       <c r="S32" t="n">
-        <v>205.8649517235392</v>
+        <v>182.5711814737726</v>
       </c>
       <c r="T32" t="n">
-        <v>222.9651171964204</v>
+        <v>218.4903622093286</v>
       </c>
       <c r="U32" t="n">
-        <v>251.4777635765444</v>
+        <v>251.3959862152726</v>
       </c>
       <c r="V32" t="n">
         <v>328.5332215225193</v>
@@ -25008,49 +25010,49 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>136.0232102050423</v>
+        <v>135.4762758837533</v>
       </c>
       <c r="H33" t="n">
-        <v>110.4625155221328</v>
+        <v>105.1802814191576</v>
       </c>
       <c r="I33" t="n">
-        <v>97.03432049999999</v>
+        <v>67.67269073688161</v>
       </c>
       <c r="J33" t="n">
-        <v>123.666686</v>
+        <v>71.99338681190339</v>
       </c>
       <c r="K33" t="n">
-        <v>134.395403</v>
+        <v>46.07750428554137</v>
       </c>
       <c r="L33" t="n">
-        <v>135.0905202853774</v>
+        <v>16.33620635813517</v>
       </c>
       <c r="M33" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>139.0313383333333</v>
+        <v>8.901750057177253</v>
       </c>
       <c r="P33" t="n">
-        <v>130.625047228972</v>
+        <v>26.18458021020075</v>
       </c>
       <c r="Q33" t="n">
-        <v>136.482229733871</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>142.0375163648649</v>
+        <v>60.73707514632421</v>
       </c>
       <c r="S33" t="n">
-        <v>168.9616139056444</v>
+        <v>158.8025487711757</v>
       </c>
       <c r="T33" t="n">
-        <v>198.3825319082687</v>
+        <v>196.1780027799153</v>
       </c>
       <c r="U33" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6211945460638</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
@@ -25087,49 +25089,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>167.8895889301081</v>
+        <v>167.431057567854</v>
       </c>
       <c r="H34" t="n">
-        <v>161.6340720089168</v>
+        <v>157.5573113517852</v>
       </c>
       <c r="I34" t="n">
-        <v>153.7585467974036</v>
+        <v>139.9692581943449</v>
       </c>
       <c r="J34" t="n">
-        <v>123.8205359034112</v>
+        <v>56.42067761641638</v>
       </c>
       <c r="K34" t="n">
-        <v>125.787926716272</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>131.5125593742073</v>
+        <v>63.34145120781625</v>
       </c>
       <c r="M34" t="n">
-        <v>135.4526393489149</v>
+        <v>63.57576408212509</v>
       </c>
       <c r="N34" t="n">
-        <v>124.4934058536024</v>
+        <v>54.32560202794129</v>
       </c>
       <c r="O34" t="n">
-        <v>134.9951249905467</v>
+        <v>70.18380116939908</v>
       </c>
       <c r="P34" t="n">
-        <v>134.2848039479189</v>
+        <v>78.82751991675428</v>
       </c>
       <c r="Q34" t="n">
-        <v>147.7173765887097</v>
+        <v>109.3216277003259</v>
       </c>
       <c r="R34" t="n">
-        <v>173.3911476697823</v>
+        <v>152.7739102360676</v>
       </c>
       <c r="S34" t="n">
-        <v>222.3574069614225</v>
+        <v>214.366455857413</v>
       </c>
       <c r="T34" t="n">
-        <v>228.3324659915077</v>
+        <v>226.3732865346039</v>
       </c>
       <c r="U34" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0272595894867</v>
       </c>
       <c r="V34" t="n">
         <v>252.9363510669392</v>
@@ -25166,49 +25168,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>414.8547654038309</v>
+        <v>413.8325483879333</v>
       </c>
       <c r="H35" t="n">
-        <v>338.1439033881534</v>
+        <v>327.6751233740921</v>
       </c>
       <c r="I35" t="n">
-        <v>205.224307868124</v>
+        <v>165.8152863627317</v>
       </c>
       <c r="J35" t="n">
-        <v>176.5197569135191</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>214.587604768856</v>
+        <v>84.55776703287157</v>
       </c>
       <c r="L35" t="n">
-        <v>229.8722545957376</v>
+        <v>68.55874285947689</v>
       </c>
       <c r="M35" t="n">
-        <v>224.5875773965909</v>
+        <v>45.0952138038613</v>
       </c>
       <c r="N35" t="n">
-        <v>223.6777370066762</v>
+        <v>41.28099931752746</v>
       </c>
       <c r="O35" t="n">
-        <v>224.3457561361446</v>
+        <v>52.11368889882763</v>
       </c>
       <c r="P35" t="n">
-        <v>225.4521708613878</v>
+        <v>78.45608620404292</v>
       </c>
       <c r="Q35" t="n">
-        <v>216.7480476275882</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>210.1958993687788</v>
+        <v>145.9840597439011</v>
       </c>
       <c r="S35" t="n">
-        <v>205.8649517235392</v>
+        <v>182.5711814737726</v>
       </c>
       <c r="T35" t="n">
-        <v>222.9651171964204</v>
+        <v>218.4903622093286</v>
       </c>
       <c r="U35" t="n">
-        <v>251.4777635765444</v>
+        <v>251.3959862152726</v>
       </c>
       <c r="V35" t="n">
         <v>328.5332215225193</v>
@@ -25245,49 +25247,49 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>136.0232102050423</v>
+        <v>135.4762758837533</v>
       </c>
       <c r="H36" t="n">
-        <v>110.4625155221328</v>
+        <v>105.1802814191576</v>
       </c>
       <c r="I36" t="n">
-        <v>97.03432049999999</v>
+        <v>67.67269073688161</v>
       </c>
       <c r="J36" t="n">
-        <v>123.666686</v>
+        <v>71.99338681190339</v>
       </c>
       <c r="K36" t="n">
-        <v>134.395403</v>
+        <v>46.07750428554137</v>
       </c>
       <c r="L36" t="n">
-        <v>135.0905202853774</v>
+        <v>16.33620635813517</v>
       </c>
       <c r="M36" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>139.0313383333333</v>
+        <v>8.901750057177253</v>
       </c>
       <c r="P36" t="n">
-        <v>130.625047228972</v>
+        <v>26.18458021020075</v>
       </c>
       <c r="Q36" t="n">
-        <v>136.482229733871</v>
+        <v>66.6665433882805</v>
       </c>
       <c r="R36" t="n">
-        <v>142.0375163648649</v>
+        <v>108.0796117500979</v>
       </c>
       <c r="S36" t="n">
-        <v>168.9616139056444</v>
+        <v>158.8025487711757</v>
       </c>
       <c r="T36" t="n">
-        <v>198.3825319082687</v>
+        <v>196.1780027799153</v>
       </c>
       <c r="U36" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6211945460638</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
@@ -25324,49 +25326,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>167.8895889301081</v>
+        <v>167.431057567854</v>
       </c>
       <c r="H37" t="n">
-        <v>161.6340720089168</v>
+        <v>157.5573113517852</v>
       </c>
       <c r="I37" t="n">
-        <v>153.7585467974036</v>
+        <v>139.9692581943449</v>
       </c>
       <c r="J37" t="n">
-        <v>123.8205359034112</v>
+        <v>56.42067761641638</v>
       </c>
       <c r="K37" t="n">
-        <v>125.787926716272</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>131.5125593742073</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>135.4526393489149</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>124.4934058536024</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>134.9951249905467</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>134.2848039479189</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>147.7173765887097</v>
+        <v>41.36495098746441</v>
       </c>
       <c r="R37" t="n">
-        <v>173.3911476697823</v>
+        <v>152.7739102360676</v>
       </c>
       <c r="S37" t="n">
-        <v>222.3574069614225</v>
+        <v>214.366455857413</v>
       </c>
       <c r="T37" t="n">
-        <v>228.3324659915077</v>
+        <v>226.3732865346039</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0272595894867</v>
       </c>
       <c r="V37" t="n">
         <v>252.9363510669392</v>
@@ -25403,49 +25405,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>414.8547654038309</v>
+        <v>413.8325483879333</v>
       </c>
       <c r="H38" t="n">
-        <v>338.1439033881534</v>
+        <v>327.6751233740921</v>
       </c>
       <c r="I38" t="n">
-        <v>205.224307868124</v>
+        <v>165.8152863627317</v>
       </c>
       <c r="J38" t="n">
-        <v>176.5197569135191</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>214.587604768856</v>
+        <v>84.55776703287157</v>
       </c>
       <c r="L38" t="n">
-        <v>229.8722545957376</v>
+        <v>68.55874285947689</v>
       </c>
       <c r="M38" t="n">
-        <v>224.5875773965909</v>
+        <v>45.0952138038613</v>
       </c>
       <c r="N38" t="n">
-        <v>223.6777370066762</v>
+        <v>41.28099931752746</v>
       </c>
       <c r="O38" t="n">
-        <v>224.3457561361446</v>
+        <v>52.11368889882763</v>
       </c>
       <c r="P38" t="n">
-        <v>225.4521708613878</v>
+        <v>78.45608620404292</v>
       </c>
       <c r="Q38" t="n">
-        <v>216.7480476275882</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>210.1958993687788</v>
+        <v>77.63898307599939</v>
       </c>
       <c r="S38" t="n">
-        <v>205.8649517235392</v>
+        <v>182.5711814737726</v>
       </c>
       <c r="T38" t="n">
-        <v>222.9651171964204</v>
+        <v>218.4903622093286</v>
       </c>
       <c r="U38" t="n">
-        <v>251.4777635765444</v>
+        <v>251.3959862152726</v>
       </c>
       <c r="V38" t="n">
         <v>328.5332215225193</v>
@@ -25482,49 +25484,49 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>136.0232102050423</v>
+        <v>135.4762758837533</v>
       </c>
       <c r="H39" t="n">
-        <v>110.4625155221328</v>
+        <v>105.1802814191576</v>
       </c>
       <c r="I39" t="n">
-        <v>97.03432049999999</v>
+        <v>78.20346777140992</v>
       </c>
       <c r="J39" t="n">
-        <v>123.666686</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>134.395403</v>
+        <v>46.07750428554137</v>
       </c>
       <c r="L39" t="n">
-        <v>135.0905202853774</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>139.0313383333333</v>
+        <v>8.901750057177253</v>
       </c>
       <c r="P39" t="n">
-        <v>130.625047228972</v>
+        <v>26.18458021020075</v>
       </c>
       <c r="Q39" t="n">
-        <v>136.482229733871</v>
+        <v>66.6665433882805</v>
       </c>
       <c r="R39" t="n">
-        <v>142.0375163648649</v>
+        <v>108.0796117500979</v>
       </c>
       <c r="S39" t="n">
-        <v>168.9616139056444</v>
+        <v>158.8025487711757</v>
       </c>
       <c r="T39" t="n">
-        <v>198.3825319082687</v>
+        <v>196.1780027799153</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6211945460638</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
@@ -25561,49 +25563,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>167.8895889301081</v>
+        <v>167.431057567854</v>
       </c>
       <c r="H40" t="n">
-        <v>161.6340720089168</v>
+        <v>157.5573113517852</v>
       </c>
       <c r="I40" t="n">
-        <v>153.7585467974036</v>
+        <v>139.9692581943449</v>
       </c>
       <c r="J40" t="n">
-        <v>123.8205359034112</v>
+        <v>56.42067761641638</v>
       </c>
       <c r="K40" t="n">
-        <v>125.787926716272</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>131.5125593742073</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>135.4526393489149</v>
+        <v>63.57576408212509</v>
       </c>
       <c r="N40" t="n">
-        <v>124.4934058536024</v>
+        <v>54.32560202794129</v>
       </c>
       <c r="O40" t="n">
-        <v>134.9951249905467</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>134.2848039479189</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>147.7173765887097</v>
+        <v>41.36495098746441</v>
       </c>
       <c r="R40" t="n">
-        <v>173.3911476697823</v>
+        <v>152.7739102360676</v>
       </c>
       <c r="S40" t="n">
-        <v>222.3574069614225</v>
+        <v>214.366455857413</v>
       </c>
       <c r="T40" t="n">
-        <v>228.3324659915077</v>
+        <v>226.3732865346039</v>
       </c>
       <c r="U40" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0272595894867</v>
       </c>
       <c r="V40" t="n">
         <v>252.9363510669392</v>
@@ -25640,49 +25642,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
-        <v>414.8547654038309</v>
+        <v>413.8325483879333</v>
       </c>
       <c r="H41" t="n">
-        <v>338.1439033881534</v>
+        <v>327.6751233740921</v>
       </c>
       <c r="I41" t="n">
-        <v>205.224307868124</v>
+        <v>165.8152863627317</v>
       </c>
       <c r="J41" t="n">
-        <v>176.5197569135191</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>214.587604768856</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>229.8722545957376</v>
+        <v>68.55874285947689</v>
       </c>
       <c r="M41" t="n">
-        <v>224.5875773965909</v>
+        <v>45.0952138038613</v>
       </c>
       <c r="N41" t="n">
-        <v>223.6777370066762</v>
+        <v>41.28099931752746</v>
       </c>
       <c r="O41" t="n">
-        <v>224.3457561361446</v>
+        <v>52.11368889882763</v>
       </c>
       <c r="P41" t="n">
-        <v>225.4521708613878</v>
+        <v>78.45608620404292</v>
       </c>
       <c r="Q41" t="n">
-        <v>216.7480476275882</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>210.1958993687788</v>
+        <v>77.63898307599939</v>
       </c>
       <c r="S41" t="n">
-        <v>205.8649517235392</v>
+        <v>182.5711814737726</v>
       </c>
       <c r="T41" t="n">
-        <v>222.9651171964204</v>
+        <v>218.4903622093286</v>
       </c>
       <c r="U41" t="n">
-        <v>251.4777635765444</v>
+        <v>251.3959862152726</v>
       </c>
       <c r="V41" t="n">
         <v>328.5332215225193</v>
@@ -25719,49 +25721,49 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>136.0232102050423</v>
+        <v>135.4762758837533</v>
       </c>
       <c r="H42" t="n">
-        <v>110.4625155221328</v>
+        <v>105.1802814191576</v>
       </c>
       <c r="I42" t="n">
-        <v>97.03432049999999</v>
+        <v>78.20346777140992</v>
       </c>
       <c r="J42" t="n">
-        <v>123.666686</v>
+        <v>71.99338681190339</v>
       </c>
       <c r="K42" t="n">
-        <v>134.395403</v>
+        <v>46.07750428554137</v>
       </c>
       <c r="L42" t="n">
-        <v>135.0905202853774</v>
+        <v>16.33620635813517</v>
       </c>
       <c r="M42" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>139.0313383333333</v>
+        <v>8.901750057177253</v>
       </c>
       <c r="P42" t="n">
-        <v>130.625047228972</v>
+        <v>26.18458021020075</v>
       </c>
       <c r="Q42" t="n">
-        <v>136.482229733871</v>
+        <v>66.6665433882805</v>
       </c>
       <c r="R42" t="n">
-        <v>142.0375163648649</v>
+        <v>108.0796117500979</v>
       </c>
       <c r="S42" t="n">
-        <v>168.9616139056444</v>
+        <v>158.8025487711757</v>
       </c>
       <c r="T42" t="n">
-        <v>198.3825319082687</v>
+        <v>196.1780027799153</v>
       </c>
       <c r="U42" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6211945460638</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -25798,49 +25800,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>167.8895889301081</v>
+        <v>167.431057567854</v>
       </c>
       <c r="H43" t="n">
-        <v>161.6340720089168</v>
+        <v>157.5573113517852</v>
       </c>
       <c r="I43" t="n">
-        <v>153.7585467974036</v>
+        <v>139.9692581943449</v>
       </c>
       <c r="J43" t="n">
-        <v>123.8205359034112</v>
+        <v>56.42067761641638</v>
       </c>
       <c r="K43" t="n">
-        <v>125.787926716272</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>131.5125593742073</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>135.4526393489149</v>
+        <v>63.57576408212509</v>
       </c>
       <c r="N43" t="n">
-        <v>124.4934058536024</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>134.9951249905467</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>134.2848039479189</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>147.7173765887097</v>
+        <v>41.36495098746441</v>
       </c>
       <c r="R43" t="n">
-        <v>173.3911476697823</v>
+        <v>152.7739102360676</v>
       </c>
       <c r="S43" t="n">
-        <v>222.3574069614225</v>
+        <v>214.366455857413</v>
       </c>
       <c r="T43" t="n">
-        <v>228.3324659915077</v>
+        <v>226.3732865346039</v>
       </c>
       <c r="U43" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0272595894867</v>
       </c>
       <c r="V43" t="n">
         <v>252.9363510669392</v>
@@ -25877,49 +25879,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>414.8547654038309</v>
+        <v>413.6919290911495</v>
       </c>
       <c r="H44" t="n">
-        <v>338.1439033881534</v>
+        <v>326.2350060009042</v>
       </c>
       <c r="I44" t="n">
-        <v>205.224307868124</v>
+        <v>160.3940609234714</v>
       </c>
       <c r="J44" t="n">
-        <v>176.5197569135191</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>214.587604768856</v>
+        <v>66.6704651595997</v>
       </c>
       <c r="L44" t="n">
-        <v>229.8722545957376</v>
+        <v>46.36796318225549</v>
       </c>
       <c r="M44" t="n">
-        <v>224.5875773965909</v>
+        <v>20.40369570745969</v>
       </c>
       <c r="N44" t="n">
-        <v>223.6777370066762</v>
+        <v>16.18994664413864</v>
       </c>
       <c r="O44" t="n">
-        <v>224.3457561361446</v>
+        <v>28.4209193578335</v>
       </c>
       <c r="P44" t="n">
-        <v>225.4521708613878</v>
+        <v>58.23485555240069</v>
       </c>
       <c r="Q44" t="n">
-        <v>216.7480476275882</v>
+        <v>91.1748077665065</v>
       </c>
       <c r="R44" t="n">
-        <v>210.1958993687788</v>
+        <v>68.80580617439929</v>
       </c>
       <c r="S44" t="n">
-        <v>205.8649517235392</v>
+        <v>179.3668192483101</v>
       </c>
       <c r="T44" t="n">
-        <v>222.9651171964204</v>
+        <v>217.8748012376572</v>
       </c>
       <c r="U44" t="n">
-        <v>251.4777635765444</v>
+        <v>251.3847366715299</v>
       </c>
       <c r="V44" t="n">
         <v>328.5332215225193</v>
@@ -25956,49 +25958,49 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>136.0232102050423</v>
+        <v>135.4010379269883</v>
       </c>
       <c r="H45" t="n">
-        <v>110.4625155221328</v>
+        <v>104.4536411525054</v>
       </c>
       <c r="I45" t="n">
-        <v>97.03432049999999</v>
+        <v>65.08226108510176</v>
       </c>
       <c r="J45" t="n">
-        <v>123.666686</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>134.395403</v>
+        <v>33.92822422317469</v>
       </c>
       <c r="L45" t="n">
-        <v>135.0905202853774</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>139.0313383333333</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>130.625047228972</v>
+        <v>11.81743037845671</v>
       </c>
       <c r="Q45" t="n">
-        <v>136.482229733871</v>
+        <v>57.06248420542693</v>
       </c>
       <c r="R45" t="n">
-        <v>142.0375163648649</v>
+        <v>56.06572200612097</v>
       </c>
       <c r="S45" t="n">
-        <v>168.9616139056444</v>
+        <v>157.4050367233684</v>
       </c>
       <c r="T45" t="n">
-        <v>198.3825319082687</v>
+        <v>195.8747410155859</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6162446804871</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
@@ -26035,49 +26037,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>167.8895889301081</v>
+        <v>167.3679805923089</v>
       </c>
       <c r="H46" t="n">
-        <v>161.6340720089168</v>
+        <v>156.9964996964846</v>
       </c>
       <c r="I46" t="n">
-        <v>153.7585467974036</v>
+        <v>138.0723615115898</v>
       </c>
       <c r="J46" t="n">
-        <v>123.8205359034112</v>
+        <v>51.9611354453805</v>
       </c>
       <c r="K46" t="n">
-        <v>125.787926716272</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>131.5125593742073</v>
+        <v>53.96362522541675</v>
       </c>
       <c r="M46" t="n">
-        <v>135.4526393489149</v>
+        <v>53.68816145191141</v>
       </c>
       <c r="N46" t="n">
-        <v>124.4934058536024</v>
+        <v>44.67310448839555</v>
       </c>
       <c r="O46" t="n">
-        <v>134.9951249905467</v>
+        <v>61.26815738962975</v>
       </c>
       <c r="P46" t="n">
-        <v>134.2848039479189</v>
+        <v>71.19864643810425</v>
       </c>
       <c r="Q46" t="n">
-        <v>147.7173765887097</v>
+        <v>36.08311442614108</v>
       </c>
       <c r="R46" t="n">
-        <v>173.3911476697823</v>
+        <v>149.9377400447414</v>
       </c>
       <c r="S46" t="n">
-        <v>222.3574069614225</v>
+        <v>213.2671962017777</v>
       </c>
       <c r="T46" t="n">
-        <v>228.3324659915077</v>
+        <v>226.1037758209114</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0238190271842</v>
       </c>
       <c r="V46" t="n">
         <v>252.9363510669392</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-6.766640581190586e-12</v>
+        <v>371347.5141293494</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-6.766640581190586e-12</v>
+        <v>99524.3971567378</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-6.766640581190586e-12</v>
+        <v>371347.5141293494</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-6.766640581190586e-12</v>
+        <v>319110.9467307678</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-6.766640581190586e-12</v>
+        <v>332120.8267993061</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-6.766640581190586e-12</v>
+        <v>250554.2174892507</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-6.766640581190586e-12</v>
+        <v>317168.0508791709</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-6.766640581190586e-12</v>
+        <v>276091.1217937342</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-6.766640581190586e-12</v>
+        <v>328229.5027277186</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-6.766640581190586e-12</v>
+        <v>272695.9883329739</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-6.766640581190586e-12</v>
+        <v>285204.4595909879</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-6.766640581190586e-12</v>
+        <v>289215.1013327176</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-6.766640581190586e-12</v>
+        <v>299556.3852931886</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-6.766640581190586e-12</v>
+        <v>307062.9017128241</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-6.766640581190586e-12</v>
+        <v>306401.7374237876</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>42439.71590049706</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>11374.2168179129</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>42439.71590049706</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>40007.14117250242</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>41493.98460890679</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>32172.08640204333</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>39785.09593231992</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>35090.58975112716</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>41049.26185786822</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>34702.57449846884</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>36132.11407081331</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>36590.47312701098</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>37772.33415106479</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>38630.22174188029</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>38996.99507039335</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>204286.4890342661</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>23281.21623271084</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>42439.71590049705</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>11374.2168179129</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>42439.71590049705</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>9055.602643874077</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>10542.44608027845</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1220.547873414992</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>8833.557403691573</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4139.051222498832</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10097.72332923987</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3751.035969840492</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>5180.575542184966</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>5638.934598382641</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6820.795622436444</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>7678.683213251952</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4175.025628239261</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>5543.227322958715</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>5543.227322958715</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>5543.227322958715</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>5543.227322958715</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>5543.227322958715</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>5543.227322958715</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5543.227322958715</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>5543.227322958715</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>5543.227322958715</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>5543.227322958715</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>5543.227322958715</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>6305.770614593474</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-33627.59999999999</v>
       </c>
       <c r="C6" t="n">
         <v>-33627.6</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-33627.59999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-178878.1778285964</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>25408.31120566962</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>25408.31120566962</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>25408.31120566963</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>25408.31120566962</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>25408.31120566963</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>25408.31120566963</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>25408.31120566963</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>25408.31120566962</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>25408.31120566963</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>25408.31120566962</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>5234.982594849775</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>254.2764827045282</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>254.2764827045282</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>254.2764827045282</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>254.2764827045282</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>254.2764827045282</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>254.2764827045282</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>254.2764827045282</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>254.2764827045282</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>254.2764827045282</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>254.2764827045282</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>254.2764827045282</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>289.2555327795172</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>254.2764827045282</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>34.97905007498895</v>
       </c>
     </row>
     <row r="4">
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.0222170158976</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>10.4687800140613</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>39.40902150539227</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>86.75939145303902</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>130.0298377359845</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>161.3135117362607</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>179.4923635927296</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>182.3967376891487</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>172.2320672373169</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>146.9960846573449</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>110.387937775512</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>64.21183962487768</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>23.29377024976659</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>4.474754987091746</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>0.081777361271808</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.5469343212889852</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>5.282234102975201</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.83085272859006</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>51.67329918809664</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>88.31789871445865</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>118.7543139272422</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>130.1295882761561</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>104.4404670187712</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>69.81568634559048</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>33.95790461476701</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>10.15906513446865</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>2.204529128353409</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>0.03598252113743326</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.4585313622540672</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>4.076760657131619</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>13.78928860305868</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>32.41816731136255</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>53.27300736006343</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>68.17110816639106</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>71.87687526678981</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>70.16780382566108</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>64.81132382114764</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>55.45728403116462</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>38.39574888838376</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>20.61723743371469</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>7.990951104009515</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.959179456903741</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>0.0250108015774946</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.0222170158976</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>10.4687800140613</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>39.40902150539227</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>86.75939145303902</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>130.0298377359845</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>161.3135117362607</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>179.4923635927296</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>182.3967376891487</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>172.2320672373169</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>146.9960846573449</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>110.387937775512</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>64.21183962487768</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>23.29377024976659</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>4.474754987091747</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>0.081777361271808</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.5469343212889852</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>5.282234102975201</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.83085272859007</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>51.67329918809664</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>88.31789871445865</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>118.7543139272422</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>130.1295882761561</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>104.4404670187712</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>69.81568634559048</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>33.95790461476701</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>10.15906513446865</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>2.204529128353409</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>0.03598252113743326</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.4585313622540673</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>4.07676065713162</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>13.78928860305868</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>32.41816731136255</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>53.27300736006344</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>68.17110816639106</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>71.87687526678982</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>70.16780382566108</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>64.81132382114764</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>55.45728403116462</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>38.39574888838376</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>20.61723743371469</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>7.990951104009515</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.959179456903742</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>0.02501080157749461</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.0222170158976</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>10.4687800140613</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>39.40902150539227</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>86.75939145303902</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>130.0298377359845</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>161.3135117362607</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>179.4923635927296</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>182.3967376891487</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>172.2320672373169</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>146.9960846573449</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>110.387937775512</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>64.21183962487768</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>23.29377024976659</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>4.474754987091747</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>0.081777361271808</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.5469343212889852</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>5.282234102975201</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>18.83085272859007</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>51.67329918809664</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>88.31789871445865</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>118.7543139272422</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>130.1295882761561</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>104.4404670187712</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>69.81568634559048</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>33.95790461476701</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>10.15906513446865</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>2.204529128353409</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>0.03598252113743326</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.4585313622540673</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>4.07676065713162</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>13.78928860305868</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>32.41816731136255</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>53.27300736006344</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>68.17110816639106</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>71.87687526678982</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>70.16780382566108</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>64.81132382114764</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>55.45728403116462</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>38.39574888838376</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>20.61723743371469</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>7.990951104009515</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.959179456903742</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.02501080157749461</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.0222170158976</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>10.4687800140613</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>39.40902150539227</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>86.75939145303902</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>130.0298377359845</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>161.3135117362607</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>179.4923635927296</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>182.3967376891487</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>172.2320672373169</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>146.9960846573449</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>110.387937775512</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>64.21183962487768</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>23.29377024976659</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>4.474754987091747</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>0.081777361271808</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.5469343212889852</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>5.282234102975201</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>18.83085272859007</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>51.67329918809664</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>88.31789871445865</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>118.7543139272422</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>130.1295882761561</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>104.4404670187712</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>69.81568634559048</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>33.95790461476701</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>10.15906513446865</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>2.204529128353409</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>0.03598252113743326</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.4585313622540673</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>4.07676065713162</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>13.78928860305868</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>32.41816731136255</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>53.27300736006344</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>68.17110816639106</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>71.87687526678982</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>70.16780382566108</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>64.81132382114764</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>55.45728403116462</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>38.39574888838376</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>20.61723743371469</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>7.990951104009515</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.959179456903742</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>0.02501080157749461</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.0222170158976</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>10.4687800140613</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>39.40902150539227</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>86.75939145303902</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>130.0298377359845</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>161.3135117362607</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>179.4923635927296</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>182.3967376891487</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>172.2320672373169</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>146.9960846573449</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>110.387937775512</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>64.21183962487768</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>23.29377024976659</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>4.474754987091747</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>0.081777361271808</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.5469343212889852</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>5.282234102975201</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>18.83085272859007</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>51.67329918809664</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>88.31789871445865</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>118.7543139272422</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>130.1295882761561</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>104.4404670187712</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>69.81568634559048</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>33.95790461476701</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>10.15906513446865</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>2.204529128353409</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>0.03598252113743326</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.4585313622540673</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>4.07676065713162</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>13.78928860305868</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>32.41816731136255</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>53.27300736006344</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>68.17110816639106</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>71.87687526678982</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>70.16780382566108</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>64.81132382114764</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>55.45728403116462</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>38.39574888838376</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>20.61723743371469</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>7.990951104009515</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.959179456903742</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.02501080157749461</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.0222170158976</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>10.4687800140613</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>39.40902150539227</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>86.75939145303902</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>130.0298377359845</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>161.3135117362607</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>179.4923635927296</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>182.3967376891487</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>172.2320672373169</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>146.9960846573449</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>110.387937775512</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>64.21183962487768</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>23.29377024976659</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>4.474754987091747</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>0.081777361271808</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.5469343212889852</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>5.282234102975201</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>18.83085272859007</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>51.67329918809664</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>88.31789871445865</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>118.7543139272422</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>130.1295882761561</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>104.4404670187712</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>69.81568634559048</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>33.95790461476701</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>10.15906513446865</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>2.204529128353409</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>0.03598252113743326</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.4585313622540673</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>4.07676065713162</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>13.78928860305868</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>32.41816731136255</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>53.27300736006344</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>68.17110816639106</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>71.87687526678982</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>70.16780382566108</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>64.81132382114764</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>55.45728403116462</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>38.39574888838376</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>20.61723743371469</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>7.990951104009515</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.959179456903742</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>0.02501080157749461</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.0222170158976</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>10.4687800140613</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>39.40902150539227</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>86.75939145303902</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>130.0298377359845</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>161.3135117362607</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>179.4923635927296</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>182.3967376891487</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>172.2320672373169</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>146.9960846573449</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>110.387937775512</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>64.21183962487768</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>23.29377024976659</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>4.474754987091747</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>0.081777361271808</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.5469343212889852</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>5.282234102975201</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>18.83085272859007</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>51.67329918809664</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>88.31789871445865</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>118.7543139272422</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>130.1295882761561</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>104.4404670187712</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>69.81568634559048</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>33.95790461476701</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>10.15906513446865</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>2.204529128353409</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>0.03598252113743326</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.4585313622540673</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>4.07676065713162</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>13.78928860305868</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>32.41816731136255</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>53.27300736006344</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>68.17110816639106</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>71.87687526678982</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>70.16780382566108</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>64.81132382114764</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>55.45728403116462</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>38.39574888838376</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>20.61723743371469</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>7.990951104009515</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.959179456903742</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>0.02501080157749461</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.0222170158976</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>10.4687800140613</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>39.40902150539227</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>86.75939145303902</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>130.0298377359845</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>161.3135117362607</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>179.4923635927296</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>182.3967376891487</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>172.2320672373169</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>146.9960846573449</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>110.387937775512</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>64.21183962487768</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>23.29377024976659</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>4.474754987091747</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>0.081777361271808</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.5469343212889852</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>5.282234102975201</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>18.83085272859007</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>51.67329918809664</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>88.31789871445865</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>118.7543139272422</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>130.1295882761561</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>104.4404670187712</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>69.81568634559048</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>33.95790461476701</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>10.15906513446865</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>2.204529128353409</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>0.03598252113743326</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.4585313622540673</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>4.07676065713162</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>13.78928860305868</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>32.41816731136255</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>53.27300736006344</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>68.17110816639106</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>71.87687526678982</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>70.16780382566108</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>64.81132382114764</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>55.45728403116462</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>38.39574888838376</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>20.61723743371469</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>7.990951104009515</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1.959179456903742</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>0.02501080157749461</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.0222170158976</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>10.4687800140613</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>39.40902150539227</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>86.75939145303902</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>130.0298377359845</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>161.3135117362607</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>179.4923635927296</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>182.3967376891487</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>172.2320672373169</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>146.9960846573449</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>110.387937775512</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>64.21183962487768</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>23.29377024976659</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>4.474754987091747</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>0.081777361271808</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.5469343212889852</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>5.282234102975201</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>18.83085272859007</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>51.67329918809664</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>88.31789871445865</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>118.7543139272422</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>130.1295882761561</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>104.4404670187712</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>69.81568634559048</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>33.95790461476701</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>10.15906513446865</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>2.204529128353409</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>0.03598252113743326</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.4585313622540673</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>4.07676065713162</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>13.78928860305868</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>32.41816731136255</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>53.27300736006344</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>68.17110816639106</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>71.87687526678982</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>70.16780382566108</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>64.81132382114764</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>55.45728403116462</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>38.39574888838376</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>20.61723743371469</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>7.990951104009515</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1.959179456903742</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>0.02501080157749461</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.0222170158976</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>10.4687800140613</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>39.40902150539227</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>86.75939145303902</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>130.0298377359845</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>161.3135117362607</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>179.4923635927296</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>182.3967376891487</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>172.2320672373169</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>146.9960846573449</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>110.387937775512</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>64.21183962487768</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>23.29377024976659</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>4.474754987091747</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>0.081777361271808</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.5469343212889852</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>5.282234102975201</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>18.83085272859007</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>51.67329918809664</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>88.31789871445865</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>118.7543139272422</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>130.1295882761561</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>104.4404670187712</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>69.81568634559048</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>33.95790461476701</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>10.15906513446865</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>2.204529128353409</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>0.03598252113743326</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.4585313622540673</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>4.07676065713162</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>13.78928860305868</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>32.41816731136255</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>53.27300736006344</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>68.17110816639106</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>71.87687526678982</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>70.16780382566108</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>64.81132382114764</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>55.45728403116462</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>38.39574888838376</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>20.61723743371469</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>7.990951104009515</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1.959179456903742</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>0.02501080157749461</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.0222170158976</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>10.4687800140613</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>39.40902150539227</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>86.75939145303902</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>130.0298377359845</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>161.3135117362607</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>179.4923635927296</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>182.3967376891487</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>172.2320672373169</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>146.9960846573449</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>110.387937775512</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>64.21183962487768</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>23.29377024976659</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>4.474754987091747</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>0.081777361271808</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.5469343212889852</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>5.282234102975201</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>18.83085272859007</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>51.67329918809664</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>88.31789871445865</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>118.7543139272422</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>130.1295882761561</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>104.4404670187712</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>69.81568634559048</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>33.95790461476701</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>10.15906513446865</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>2.204529128353409</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>0.03598252113743326</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.4585313622540673</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>4.07676065713162</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>13.78928860305868</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>32.41816731136255</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>53.27300736006344</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>68.17110816639106</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>71.87687526678982</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>70.16780382566108</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>64.81132382114764</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>55.45728403116462</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>38.39574888838376</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>20.61723743371469</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>7.990951104009515</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>1.959179456903742</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>0.02501080157749461</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.162836312681475</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>11.90889738724916</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>44.83024694465261</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>98.69427849344945</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>147.9171396092563</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>183.5042914134821</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>204.1838816891312</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>207.4877903625375</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>195.9248367783111</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>167.2173153089871</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>125.5732398610817</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>73.04501652647778</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>26.49813247522914</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>5.09031595876316</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.093026905014518</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.6221722780540558</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>6.00887436962733</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>21.42128238036991</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>58.78163614720359</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>100.4671787768253</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>118.8076168505153</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>79.41974552844405</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>38.62925775497025</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>11.55657718227599</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>2.507790892682794</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.04093238671408263</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.5216083377991293</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>4.637572312432262</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>15.68618528581382</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>36.87770948239844</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>60.60140506429882</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>77.54893414879056</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>81.7644778970035</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>79.82030136520682</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>73.72696760091696</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>63.08615750981466</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>43.6775854497071</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>23.45340762504085</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>9.090210759644821</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>2.228690170596279</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.02845136387995254</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_8_8.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_8_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-81289.16841566094</v>
+        <v>-205107.3679563853</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11848492.60035744</v>
+        <v>10386778.44256379</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23663521.31051881</v>
+        <v>22004859.84432914</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3404793.448092149</v>
+        <v>4294430.338209494</v>
       </c>
     </row>
     <row r="11">
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8303,13 +8303,13 @@
         <v>135.0905202853774</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N6" t="n">
         <v>128.05816928125</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P6" t="n">
         <v>130.625047228972</v>
@@ -8692,22 +8692,22 @@
         <v>89.76036546048012</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>84.5577670328716</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>68.55874285947689</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>45.09521380386133</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>41.28099931752749</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>52.11368889882766</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>78.45608620404292</v>
       </c>
       <c r="Q11" t="n">
         <v>106.3601098520762</v>
@@ -8771,10 +8771,10 @@
         <v>71.99338681190339</v>
       </c>
       <c r="K12" t="n">
-        <v>46.07750428554137</v>
+        <v>46.07750428554138</v>
       </c>
       <c r="L12" t="n">
-        <v>16.33620635813519</v>
+        <v>16.33620635813517</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>8.901750057177253</v>
       </c>
       <c r="P12" t="n">
         <v>26.18458021020076</v>
       </c>
       <c r="Q12" t="n">
-        <v>66.6665433882805</v>
+        <v>66.66654338828052</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -8929,22 +8929,22 @@
         <v>89.76036546048012</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>84.5577670328716</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>68.55874285947689</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>45.09521380386133</v>
       </c>
       <c r="N14" t="n">
-        <v>41.28099931752746</v>
+        <v>41.28099931752749</v>
       </c>
       <c r="O14" t="n">
-        <v>52.11368889882763</v>
+        <v>52.11368889882766</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>78.45608620404292</v>
       </c>
       <c r="Q14" t="n">
         <v>106.3601098520762</v>
@@ -9008,7 +9008,7 @@
         <v>71.99338681190339</v>
       </c>
       <c r="K15" t="n">
-        <v>46.07750428554137</v>
+        <v>46.07750428554138</v>
       </c>
       <c r="L15" t="n">
         <v>16.33620635813517</v>
@@ -9020,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>8.901750057177253</v>
       </c>
       <c r="P15" t="n">
-        <v>26.18458021020075</v>
+        <v>26.18458021020076</v>
       </c>
       <c r="Q15" t="n">
-        <v>66.6665433882805</v>
+        <v>66.66654338828052</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9087,13 +9087,13 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K16" t="n">
-        <v>72.51491935620854</v>
+        <v>72.51491935620855</v>
       </c>
       <c r="L16" t="n">
         <v>63.34145120781625</v>
       </c>
       <c r="M16" t="n">
-        <v>63.57576408212509</v>
+        <v>63.5757640821251</v>
       </c>
       <c r="N16" t="n">
         <v>54.32560202794129</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>83.82543222923999</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>75.6628405919713</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>57.5238000663409</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>32.81671374064987</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>28.80382028651667</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>40.33184255098618</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>68.40055292880919</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>98.80882313533421</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>68.45858123773975</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>40.03595854374745</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>8.212602535240634</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>19.04014099716809</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>61.89067497778616</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,22 +9324,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K19" t="n">
-        <v>72.51491935620854</v>
+        <v>68.87068284861988</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>58.678083144819</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>58.65889631214456</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>49.52564638379106</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>65.75026523669263</v>
       </c>
       <c r="P19" t="n">
-        <v>78.82751991675428</v>
+        <v>75.03386400932396</v>
       </c>
       <c r="Q19" t="n">
         <v>67.95667671286152</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>89.76036546048012</v>
+        <v>83.82543222923999</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>75.6628405919713</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>57.5238000663409</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>32.81671374064987</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>28.80382028651667</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>40.33184255098618</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>68.40055292880919</v>
       </c>
       <c r="Q20" t="n">
-        <v>106.3601098520762</v>
+        <v>98.80882313533421</v>
       </c>
       <c r="R20" t="n">
         <v>68.34507666790174</v>
@@ -9479,13 +9479,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>71.99338681190339</v>
+        <v>68.45858123773975</v>
       </c>
       <c r="K21" t="n">
-        <v>46.07750428554137</v>
+        <v>40.03595854374745</v>
       </c>
       <c r="L21" t="n">
-        <v>16.33620635813517</v>
+        <v>8.212602535240634</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>19.04014099716809</v>
       </c>
       <c r="Q21" t="n">
-        <v>66.6665433882805</v>
+        <v>61.89067497778616</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9561,22 +9561,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K22" t="n">
-        <v>72.51491935620854</v>
+        <v>68.87068284861988</v>
       </c>
       <c r="L22" t="n">
-        <v>63.34145120781625</v>
+        <v>58.678083144819</v>
       </c>
       <c r="M22" t="n">
-        <v>63.57576408212509</v>
+        <v>58.65889631214456</v>
       </c>
       <c r="N22" t="n">
-        <v>54.32560202794129</v>
+        <v>49.52564638379106</v>
       </c>
       <c r="O22" t="n">
-        <v>70.18380116939908</v>
+        <v>65.75026523669263</v>
       </c>
       <c r="P22" t="n">
-        <v>78.82751991675428</v>
+        <v>75.03386400932396</v>
       </c>
       <c r="Q22" t="n">
         <v>67.95667671286152</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>89.76036546048012</v>
+        <v>83.82543222923999</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>75.6628405919713</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>57.5238000663409</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>32.81671374064987</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>28.80382028651667</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>40.33184255098618</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>68.40055292880919</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>98.80882313533421</v>
       </c>
       <c r="R23" t="n">
         <v>68.34507666790174</v>
@@ -9713,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>68.45858123773975</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>40.03595854374745</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>8.212602535240634</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>19.04014099716809</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>61.89067497778616</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9798,22 +9798,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K25" t="n">
-        <v>72.51491935620854</v>
+        <v>68.87068284861988</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>58.678083144819</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>58.65889631214456</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>49.52564638379106</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>65.75026523669263</v>
       </c>
       <c r="P25" t="n">
-        <v>78.82751991675428</v>
+        <v>75.03386400932396</v>
       </c>
       <c r="Q25" t="n">
         <v>67.95667671286152</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>89.76036546048012</v>
+        <v>83.82543222923999</v>
       </c>
       <c r="K26" t="n">
-        <v>84.55776703287157</v>
+        <v>75.6628405919713</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>57.5238000663409</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>32.81671374064987</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>28.80382028651667</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>40.33184255098618</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>68.40055292880919</v>
       </c>
       <c r="Q26" t="n">
-        <v>106.3601098520762</v>
+        <v>98.80882313533421</v>
       </c>
       <c r="R26" t="n">
         <v>68.34507666790174</v>
@@ -9953,13 +9953,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>71.99338681190339</v>
+        <v>68.45858123773975</v>
       </c>
       <c r="K27" t="n">
-        <v>46.07750428554137</v>
+        <v>40.03595854374745</v>
       </c>
       <c r="L27" t="n">
-        <v>16.33620635813517</v>
+        <v>8.212602535240634</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>26.18458021020075</v>
+        <v>19.04014099716809</v>
       </c>
       <c r="Q27" t="n">
-        <v>66.6665433882805</v>
+        <v>61.89067497778616</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10035,22 +10035,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K28" t="n">
-        <v>72.51491935620854</v>
+        <v>68.87068284861988</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>58.678083144819</v>
       </c>
       <c r="M28" t="n">
-        <v>63.57576408212509</v>
+        <v>58.65889631214456</v>
       </c>
       <c r="N28" t="n">
-        <v>54.32560202794129</v>
+        <v>49.52564638379106</v>
       </c>
       <c r="O28" t="n">
-        <v>70.18380116939908</v>
+        <v>65.75026523669263</v>
       </c>
       <c r="P28" t="n">
-        <v>78.82751991675428</v>
+        <v>75.03386400932396</v>
       </c>
       <c r="Q28" t="n">
         <v>67.95667671286152</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>89.76036546048012</v>
+        <v>83.82543222923999</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>75.6628405919713</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>57.5238000663409</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>32.81671374064987</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>28.80382028651667</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>40.33184255098618</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>68.40055292880919</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>98.80882313533421</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>71.99338681190339</v>
+        <v>68.45858123773975</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>40.03595854374745</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>8.212602535240634</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>19.04014099716809</v>
       </c>
       <c r="Q30" t="n">
-        <v>66.6665433882805</v>
+        <v>61.89067497778616</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10272,22 +10272,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K31" t="n">
-        <v>72.51491935620854</v>
+        <v>68.87068284861988</v>
       </c>
       <c r="L31" t="n">
-        <v>63.34145120781625</v>
+        <v>58.678083144819</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>58.65889631214456</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>49.52564638379106</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>65.75026523669263</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>75.03386400932396</v>
       </c>
       <c r="Q31" t="n">
         <v>67.95667671286152</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>89.76036546048012</v>
+        <v>83.82543222923999</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>75.6628405919713</v>
       </c>
       <c r="L32" t="n">
-        <v>68.55874285947689</v>
+        <v>57.5238000663409</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>32.81671374064987</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>28.80382028651667</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>40.33184255098618</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>68.40055292880919</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>98.80882313533421</v>
       </c>
       <c r="R32" t="n">
         <v>68.34507666790174</v>
@@ -10427,13 +10427,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>68.45858123773975</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>40.03595854374745</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>8.212602535240634</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>19.04014099716809</v>
       </c>
       <c r="Q33" t="n">
-        <v>66.6665433882805</v>
+        <v>61.89067497778616</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10509,25 +10509,25 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K34" t="n">
-        <v>72.51491935620854</v>
+        <v>68.87068284861988</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>58.678083144819</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>58.65889631214456</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>49.52564638379106</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>65.75026523669263</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>75.03386400932396</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>89.76036546048012</v>
+        <v>83.82543222923999</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>75.6628405919713</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>57.5238000663409</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>32.81671374064987</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>28.8038202865167</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>40.33184255098621</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>68.40055292880922</v>
       </c>
       <c r="Q35" t="n">
-        <v>106.3601098520762</v>
+        <v>98.80882313533421</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>68.45858123773974</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>40.03595854374745</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>8.212602535240634</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>19.04014099716808</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>61.89067497778616</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10746,22 +10746,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K37" t="n">
-        <v>72.51491935620854</v>
+        <v>68.87068284861988</v>
       </c>
       <c r="L37" t="n">
-        <v>63.34145120781625</v>
+        <v>58.678083144819</v>
       </c>
       <c r="M37" t="n">
-        <v>63.57576408212509</v>
+        <v>58.65889631214456</v>
       </c>
       <c r="N37" t="n">
-        <v>54.32560202794129</v>
+        <v>49.52564638379106</v>
       </c>
       <c r="O37" t="n">
-        <v>70.18380116939908</v>
+        <v>65.75026523669263</v>
       </c>
       <c r="P37" t="n">
-        <v>78.82751991675428</v>
+        <v>75.03386400932396</v>
       </c>
       <c r="Q37" t="n">
         <v>67.95667671286152</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>89.76036546048012</v>
+        <v>83.82543222923999</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>75.6628405919713</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>57.5238000663409</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>32.81671374064987</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>28.80382028651667</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>40.33184255098618</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>68.40055292880919</v>
       </c>
       <c r="Q38" t="n">
-        <v>106.3601098520762</v>
+        <v>98.80882313533421</v>
       </c>
       <c r="R38" t="n">
         <v>68.34507666790174</v>
@@ -10898,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>71.99338681190339</v>
+        <v>68.45858123773975</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>40.03595854374745</v>
       </c>
       <c r="L39" t="n">
-        <v>16.33620635813517</v>
+        <v>8.212602535240634</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>19.04014099716809</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>61.89067497778616</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,22 +10983,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K40" t="n">
-        <v>72.51491935620854</v>
+        <v>68.87068284861988</v>
       </c>
       <c r="L40" t="n">
-        <v>63.34145120781625</v>
+        <v>58.678083144819</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>58.65889631214456</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>49.52564638379106</v>
       </c>
       <c r="O40" t="n">
-        <v>70.18380116939908</v>
+        <v>65.75026523669263</v>
       </c>
       <c r="P40" t="n">
-        <v>78.82751991675428</v>
+        <v>75.03386400932396</v>
       </c>
       <c r="Q40" t="n">
         <v>67.95667671286152</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>89.76036546048012</v>
+        <v>83.82543222923999</v>
       </c>
       <c r="K41" t="n">
-        <v>84.55776703287157</v>
+        <v>75.6628405919713</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>57.5238000663409</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>32.81671374064987</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>28.80382028651667</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>40.33184255098618</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>68.40055292880919</v>
       </c>
       <c r="Q41" t="n">
-        <v>106.3601098520762</v>
+        <v>98.80882313533421</v>
       </c>
       <c r="R41" t="n">
         <v>68.34507666790174</v>
@@ -11135,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>68.45858123773975</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>40.03595854374745</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>8.212602535240634</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>19.04014099716809</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>61.89067497778616</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,22 +11220,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K43" t="n">
-        <v>72.51491935620854</v>
+        <v>68.87068284861988</v>
       </c>
       <c r="L43" t="n">
-        <v>63.34145120781625</v>
+        <v>58.678083144819</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>58.65889631214456</v>
       </c>
       <c r="N43" t="n">
-        <v>54.32560202794129</v>
+        <v>49.52564638379106</v>
       </c>
       <c r="O43" t="n">
-        <v>70.18380116939908</v>
+        <v>65.75026523669263</v>
       </c>
       <c r="P43" t="n">
-        <v>78.82751991675428</v>
+        <v>75.03386400932396</v>
       </c>
       <c r="Q43" t="n">
         <v>67.95667671286152</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>77.82547842006969</v>
+        <v>83.82543222923999</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>75.6628405919713</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>57.5238000663409</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>32.81671374064987</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>28.80382028651667</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>40.33184255098618</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>68.40055292880919</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>98.80882313533421</v>
       </c>
       <c r="R44" t="n">
         <v>68.34507666790174</v>
@@ -11375,13 +11375,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>64.88504985279644</v>
+        <v>68.45858123773975</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>40.03595854374745</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>8.212602535240634</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>19.04014099716809</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>61.89067497778616</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -11457,22 +11457,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K46" t="n">
-        <v>65.18652165197315</v>
+        <v>68.87068284861988</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>58.678083144819</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>58.65889631214456</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>49.52564638379106</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>65.75026523669263</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>75.03386400932396</v>
       </c>
       <c r="Q46" t="n">
         <v>67.95667671286152</v>
@@ -22807,31 +22807,31 @@
         <v>205.224307868124</v>
       </c>
       <c r="J5" t="n">
-        <v>176.5197569135191</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K5" t="n">
-        <v>214.587604768856</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>229.8722545957376</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>224.5875773965909</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>223.6777370066762</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>224.3457561361446</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>225.4521708613878</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>216.7480476275882</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>210.1958993687788</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S5" t="n">
         <v>205.8649517235392</v>
@@ -22895,13 +22895,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>139.0313383333333</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -23284,22 +23284,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>84.55776703287157</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>68.55874285947689</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>45.0952138038613</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>41.28099931752746</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>52.11368889882766</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>78.45608620404292</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -23375,7 +23375,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>8.901750057177253</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -23521,13 +23521,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>84.55776703287157</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>68.55874285947689</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>45.0952138038613</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -23536,7 +23536,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>78.45608620404292</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -23612,7 +23612,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>8.901750057177253</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>41.36495098746441</v>
+        <v>41.36495098746442</v>
       </c>
       <c r="R16" t="n">
         <v>152.7739102360676</v>
@@ -23746,49 +23746,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
-        <v>413.8325483879333</v>
+        <v>413.7626217824606</v>
       </c>
       <c r="H17" t="n">
-        <v>327.6751233740921</v>
+        <v>326.9589875257946</v>
       </c>
       <c r="I17" t="n">
-        <v>165.8152863627317</v>
+        <v>163.1194409052448</v>
       </c>
       <c r="J17" t="n">
-        <v>89.76036546048012</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>84.55776703287157</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>68.55874285947689</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>45.0952138038613</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>41.28099931752746</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>52.11368889882763</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>78.45608620404292</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>106.3601098520762</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>145.9840597439011</v>
+        <v>73.24645594497376</v>
       </c>
       <c r="S17" t="n">
-        <v>182.5711814737726</v>
+        <v>180.9777289515631</v>
       </c>
       <c r="T17" t="n">
-        <v>218.4903622093286</v>
+        <v>218.1842584938718</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3959862152726</v>
+        <v>251.3903920868348</v>
       </c>
       <c r="V17" t="n">
         <v>328.5332215225193</v>
@@ -23825,22 +23825,22 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>135.4762758837533</v>
+        <v>135.4388618514006</v>
       </c>
       <c r="H18" t="n">
-        <v>105.1802814191576</v>
+        <v>104.8189406330145</v>
       </c>
       <c r="I18" t="n">
-        <v>78.20346777140992</v>
+        <v>66.38453216684378</v>
       </c>
       <c r="J18" t="n">
-        <v>71.99338681190339</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>46.07750428554137</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>16.33620635813517</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -23849,25 +23849,25 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>8.901750057177253</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>26.18458021020075</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>66.6665433882805</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>108.0796117500979</v>
+        <v>58.41412320779487</v>
       </c>
       <c r="S18" t="n">
-        <v>158.8025487711757</v>
+        <v>158.1075995298878</v>
       </c>
       <c r="T18" t="n">
-        <v>196.1780027799153</v>
+        <v>196.0271979740726</v>
       </c>
       <c r="U18" t="n">
-        <v>224.6211945460638</v>
+        <v>224.6187330965669</v>
       </c>
       <c r="V18" t="n">
         <v>231.9087310396551</v>
@@ -23904,49 +23904,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
-        <v>167.431057567854</v>
+        <v>167.3996908999483</v>
       </c>
       <c r="H19" t="n">
-        <v>157.5573113517852</v>
+        <v>157.278433158951</v>
       </c>
       <c r="I19" t="n">
-        <v>139.9692581943449</v>
+        <v>139.0259769449628</v>
       </c>
       <c r="J19" t="n">
-        <v>56.42067761641638</v>
+        <v>54.20305419548392</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>63.34145120781625</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>63.57576408212509</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>54.32560202794129</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>70.18380116939908</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>41.36495098746441</v>
+        <v>38.73842027765227</v>
       </c>
       <c r="R19" t="n">
-        <v>152.7739102360676</v>
+        <v>151.3635507864171</v>
       </c>
       <c r="S19" t="n">
-        <v>214.366455857413</v>
+        <v>213.8198203812747</v>
       </c>
       <c r="T19" t="n">
-        <v>226.3732865346039</v>
+        <v>226.2392653171887</v>
       </c>
       <c r="U19" t="n">
-        <v>286.0272595894867</v>
+        <v>286.0255486803282</v>
       </c>
       <c r="V19" t="n">
         <v>252.9363510669392</v>
@@ -23983,49 +23983,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>413.8325483879333</v>
+        <v>413.7626217824606</v>
       </c>
       <c r="H20" t="n">
-        <v>327.6751233740921</v>
+        <v>326.9589875257946</v>
       </c>
       <c r="I20" t="n">
-        <v>165.8152863627317</v>
+        <v>163.1194409052448</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>84.55776703287157</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>68.55874285947689</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>45.0952138038613</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>41.28099931752746</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>52.11368889882763</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>78.45608620404292</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>77.63898307599939</v>
+        <v>73.24645594497376</v>
       </c>
       <c r="S20" t="n">
-        <v>182.5711814737726</v>
+        <v>180.9777289515631</v>
       </c>
       <c r="T20" t="n">
-        <v>218.4903622093286</v>
+        <v>218.1842584938718</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3959862152726</v>
+        <v>251.3903920868348</v>
       </c>
       <c r="V20" t="n">
         <v>328.5332215225193</v>
@@ -24062,13 +24062,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>135.4762758837533</v>
+        <v>135.4388618514006</v>
       </c>
       <c r="H21" t="n">
-        <v>105.1802814191576</v>
+        <v>104.8189406330145</v>
       </c>
       <c r="I21" t="n">
-        <v>67.67269073688161</v>
+        <v>66.38453216684378</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24086,25 +24086,25 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>8.901750057177253</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>26.18458021020075</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>60.73707514632421</v>
+        <v>58.41412320779487</v>
       </c>
       <c r="S21" t="n">
-        <v>158.8025487711757</v>
+        <v>158.1075995298878</v>
       </c>
       <c r="T21" t="n">
-        <v>196.1780027799153</v>
+        <v>196.0271979740726</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6211945460638</v>
+        <v>224.6187330965669</v>
       </c>
       <c r="V21" t="n">
         <v>231.9087310396551</v>
@@ -24141,16 +24141,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>167.431057567854</v>
+        <v>167.3996908999483</v>
       </c>
       <c r="H22" t="n">
-        <v>157.5573113517852</v>
+        <v>157.278433158951</v>
       </c>
       <c r="I22" t="n">
-        <v>139.9692581943449</v>
+        <v>139.0259769449628</v>
       </c>
       <c r="J22" t="n">
-        <v>56.42067761641638</v>
+        <v>54.20305419548392</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>41.36495098746441</v>
+        <v>38.73842027765227</v>
       </c>
       <c r="R22" t="n">
-        <v>152.7739102360676</v>
+        <v>151.3635507864171</v>
       </c>
       <c r="S22" t="n">
-        <v>214.366455857413</v>
+        <v>213.8198203812747</v>
       </c>
       <c r="T22" t="n">
-        <v>226.3732865346039</v>
+        <v>226.2392653171887</v>
       </c>
       <c r="U22" t="n">
-        <v>286.0272595894867</v>
+        <v>286.0255486803282</v>
       </c>
       <c r="V22" t="n">
         <v>252.9363510669392</v>
@@ -24220,49 +24220,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>413.8325483879333</v>
+        <v>413.7626217824606</v>
       </c>
       <c r="H23" t="n">
-        <v>327.6751233740921</v>
+        <v>326.9589875257946</v>
       </c>
       <c r="I23" t="n">
-        <v>165.8152863627317</v>
+        <v>163.1194409052448</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>84.55776703287157</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>68.55874285947689</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>45.0952138038613</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>41.28099931752746</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>52.11368889882763</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>78.45608620404292</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>106.3601098520762</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>77.63898307599939</v>
+        <v>73.24645594497376</v>
       </c>
       <c r="S23" t="n">
-        <v>182.5711814737726</v>
+        <v>180.9777289515631</v>
       </c>
       <c r="T23" t="n">
-        <v>218.4903622093286</v>
+        <v>218.1842584938718</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3959862152726</v>
+        <v>251.3903920868348</v>
       </c>
       <c r="V23" t="n">
         <v>328.5332215225193</v>
@@ -24299,22 +24299,22 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>135.4762758837533</v>
+        <v>135.4388618514006</v>
       </c>
       <c r="H24" t="n">
-        <v>105.1802814191576</v>
+        <v>104.8189406330145</v>
       </c>
       <c r="I24" t="n">
-        <v>78.20346777140992</v>
+        <v>66.38453216684378</v>
       </c>
       <c r="J24" t="n">
-        <v>71.99338681190339</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>46.07750428554137</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>16.33620635813517</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -24323,25 +24323,25 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>8.901750057177253</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>26.18458021020075</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>66.6665433882805</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>60.73707514632421</v>
+        <v>58.41412320779487</v>
       </c>
       <c r="S24" t="n">
-        <v>158.8025487711757</v>
+        <v>158.1075995298878</v>
       </c>
       <c r="T24" t="n">
-        <v>196.1780027799153</v>
+        <v>196.0271979740726</v>
       </c>
       <c r="U24" t="n">
-        <v>224.6211945460638</v>
+        <v>224.6187330965669</v>
       </c>
       <c r="V24" t="n">
         <v>231.9087310396551</v>
@@ -24378,49 +24378,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
-        <v>167.431057567854</v>
+        <v>167.3996908999483</v>
       </c>
       <c r="H25" t="n">
-        <v>157.5573113517852</v>
+        <v>157.278433158951</v>
       </c>
       <c r="I25" t="n">
-        <v>139.9692581943449</v>
+        <v>139.0259769449628</v>
       </c>
       <c r="J25" t="n">
-        <v>56.42067761641638</v>
+        <v>54.20305419548392</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>63.34145120781625</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>63.57576408212509</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>54.32560202794129</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>70.18380116939908</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>41.36495098746441</v>
+        <v>38.73842027765227</v>
       </c>
       <c r="R25" t="n">
-        <v>152.7739102360676</v>
+        <v>151.3635507864171</v>
       </c>
       <c r="S25" t="n">
-        <v>214.366455857413</v>
+        <v>213.8198203812747</v>
       </c>
       <c r="T25" t="n">
-        <v>226.3732865346039</v>
+        <v>226.2392653171887</v>
       </c>
       <c r="U25" t="n">
-        <v>286.0272595894867</v>
+        <v>286.0255486803282</v>
       </c>
       <c r="V25" t="n">
         <v>252.9363510669392</v>
@@ -24457,13 +24457,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>413.8325483879333</v>
+        <v>413.7626217824606</v>
       </c>
       <c r="H26" t="n">
-        <v>327.6751233740921</v>
+        <v>326.9589875257946</v>
       </c>
       <c r="I26" t="n">
-        <v>165.8152863627317</v>
+        <v>163.1194409052448</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24472,34 +24472,34 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>68.55874285947689</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>45.0952138038613</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>41.28099931752746</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>52.11368889882763</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>78.45608620404292</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>77.63898307599939</v>
+        <v>73.24645594497376</v>
       </c>
       <c r="S26" t="n">
-        <v>182.5711814737726</v>
+        <v>180.9777289515631</v>
       </c>
       <c r="T26" t="n">
-        <v>218.4903622093286</v>
+        <v>218.1842584938718</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3959862152726</v>
+        <v>251.3903920868348</v>
       </c>
       <c r="V26" t="n">
         <v>328.5332215225193</v>
@@ -24536,13 +24536,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>135.4762758837533</v>
+        <v>135.4388618514006</v>
       </c>
       <c r="H27" t="n">
-        <v>105.1802814191576</v>
+        <v>104.8189406330145</v>
       </c>
       <c r="I27" t="n">
-        <v>67.67269073688161</v>
+        <v>66.38453216684378</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24560,7 +24560,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>8.901750057177253</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -24569,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>60.73707514632421</v>
+        <v>58.41412320779487</v>
       </c>
       <c r="S27" t="n">
-        <v>158.8025487711757</v>
+        <v>158.1075995298878</v>
       </c>
       <c r="T27" t="n">
-        <v>196.1780027799153</v>
+        <v>196.0271979740726</v>
       </c>
       <c r="U27" t="n">
-        <v>224.6211945460638</v>
+        <v>224.6187330965669</v>
       </c>
       <c r="V27" t="n">
         <v>231.9087310396551</v>
@@ -24615,22 +24615,22 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>167.431057567854</v>
+        <v>167.3996908999483</v>
       </c>
       <c r="H28" t="n">
-        <v>157.5573113517852</v>
+        <v>157.278433158951</v>
       </c>
       <c r="I28" t="n">
-        <v>139.9692581943449</v>
+        <v>139.0259769449628</v>
       </c>
       <c r="J28" t="n">
-        <v>56.42067761641638</v>
+        <v>54.20305419548392</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>63.34145120781625</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -24645,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>41.36495098746441</v>
+        <v>38.73842027765227</v>
       </c>
       <c r="R28" t="n">
-        <v>152.7739102360676</v>
+        <v>151.3635507864171</v>
       </c>
       <c r="S28" t="n">
-        <v>214.366455857413</v>
+        <v>213.8198203812747</v>
       </c>
       <c r="T28" t="n">
-        <v>226.3732865346039</v>
+        <v>226.2392653171887</v>
       </c>
       <c r="U28" t="n">
-        <v>286.0272595894867</v>
+        <v>286.0255486803282</v>
       </c>
       <c r="V28" t="n">
         <v>252.9363510669392</v>
@@ -24694,49 +24694,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>413.8325483879333</v>
+        <v>413.7626217824606</v>
       </c>
       <c r="H29" t="n">
-        <v>327.6751233740921</v>
+        <v>326.9589875257946</v>
       </c>
       <c r="I29" t="n">
-        <v>165.8152863627317</v>
+        <v>163.1194409052448</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>84.55776703287157</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>68.55874285947689</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>45.0952138038613</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>41.28099931752746</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>52.11368889882763</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>78.45608620404292</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>106.3601098520762</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>145.9840597439011</v>
+        <v>73.24645594497376</v>
       </c>
       <c r="S29" t="n">
-        <v>182.5711814737726</v>
+        <v>180.9777289515631</v>
       </c>
       <c r="T29" t="n">
-        <v>218.4903622093286</v>
+        <v>218.1842584938718</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3959862152726</v>
+        <v>251.3903920868348</v>
       </c>
       <c r="V29" t="n">
         <v>328.5332215225193</v>
@@ -24773,22 +24773,22 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>135.4762758837533</v>
+        <v>135.4388618514006</v>
       </c>
       <c r="H30" t="n">
-        <v>105.1802814191576</v>
+        <v>104.8189406330145</v>
       </c>
       <c r="I30" t="n">
-        <v>78.20346777140992</v>
+        <v>66.38453216684378</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>46.07750428554137</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>16.33620635813517</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -24797,25 +24797,25 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>8.901750057177253</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>26.18458021020075</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>108.0796117500979</v>
+        <v>58.41412320779487</v>
       </c>
       <c r="S30" t="n">
-        <v>158.8025487711757</v>
+        <v>158.1075995298878</v>
       </c>
       <c r="T30" t="n">
-        <v>196.1780027799153</v>
+        <v>196.0271979740726</v>
       </c>
       <c r="U30" t="n">
-        <v>224.6211945460638</v>
+        <v>224.6187330965669</v>
       </c>
       <c r="V30" t="n">
         <v>231.9087310396551</v>
@@ -24852,16 +24852,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>167.431057567854</v>
+        <v>167.3996908999483</v>
       </c>
       <c r="H31" t="n">
-        <v>157.5573113517852</v>
+        <v>157.278433158951</v>
       </c>
       <c r="I31" t="n">
-        <v>139.9692581943449</v>
+        <v>139.0259769449628</v>
       </c>
       <c r="J31" t="n">
-        <v>56.42067761641638</v>
+        <v>54.20305419548392</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24870,31 +24870,31 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>63.57576408212509</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>54.32560202794129</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>70.18380116939908</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>78.82751991675428</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>41.36495098746441</v>
+        <v>38.73842027765227</v>
       </c>
       <c r="R31" t="n">
-        <v>152.7739102360676</v>
+        <v>151.3635507864171</v>
       </c>
       <c r="S31" t="n">
-        <v>214.366455857413</v>
+        <v>213.8198203812747</v>
       </c>
       <c r="T31" t="n">
-        <v>226.3732865346039</v>
+        <v>226.2392653171887</v>
       </c>
       <c r="U31" t="n">
-        <v>286.0272595894867</v>
+        <v>286.0255486803282</v>
       </c>
       <c r="V31" t="n">
         <v>252.9363510669392</v>
@@ -24931,49 +24931,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>413.8325483879333</v>
+        <v>413.7626217824606</v>
       </c>
       <c r="H32" t="n">
-        <v>327.6751233740921</v>
+        <v>326.9589875257946</v>
       </c>
       <c r="I32" t="n">
-        <v>165.8152863627317</v>
+        <v>163.1194409052448</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>84.55776703287157</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>45.0952138038613</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>41.28099931752746</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>52.11368889882763</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>78.45608620404292</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3601098520762</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>77.63898307599939</v>
+        <v>73.24645594497376</v>
       </c>
       <c r="S32" t="n">
-        <v>182.5711814737726</v>
+        <v>180.9777289515631</v>
       </c>
       <c r="T32" t="n">
-        <v>218.4903622093286</v>
+        <v>218.1842584938718</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3959862152726</v>
+        <v>251.3903920868348</v>
       </c>
       <c r="V32" t="n">
         <v>328.5332215225193</v>
@@ -25010,22 +25010,22 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>135.4762758837533</v>
+        <v>135.4388618514006</v>
       </c>
       <c r="H33" t="n">
-        <v>105.1802814191576</v>
+        <v>104.8189406330145</v>
       </c>
       <c r="I33" t="n">
-        <v>67.67269073688161</v>
+        <v>66.38453216684378</v>
       </c>
       <c r="J33" t="n">
-        <v>71.99338681190339</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>46.07750428554137</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>16.33620635813517</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -25034,25 +25034,25 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>8.901750057177253</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>26.18458021020075</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>60.73707514632421</v>
+        <v>58.41412320779487</v>
       </c>
       <c r="S33" t="n">
-        <v>158.8025487711757</v>
+        <v>158.1075995298878</v>
       </c>
       <c r="T33" t="n">
-        <v>196.1780027799153</v>
+        <v>196.0271979740726</v>
       </c>
       <c r="U33" t="n">
-        <v>224.6211945460638</v>
+        <v>224.6187330965669</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
@@ -25089,49 +25089,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>167.431057567854</v>
+        <v>167.3996908999483</v>
       </c>
       <c r="H34" t="n">
-        <v>157.5573113517852</v>
+        <v>157.278433158951</v>
       </c>
       <c r="I34" t="n">
-        <v>139.9692581943449</v>
+        <v>139.0259769449628</v>
       </c>
       <c r="J34" t="n">
-        <v>56.42067761641638</v>
+        <v>54.20305419548392</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>63.34145120781625</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>63.57576408212509</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>54.32560202794129</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>70.18380116939908</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>78.82751991675428</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.3216277003259</v>
+        <v>38.73842027765227</v>
       </c>
       <c r="R34" t="n">
-        <v>152.7739102360676</v>
+        <v>151.3635507864171</v>
       </c>
       <c r="S34" t="n">
-        <v>214.366455857413</v>
+        <v>213.8198203812747</v>
       </c>
       <c r="T34" t="n">
-        <v>226.3732865346039</v>
+        <v>226.2392653171887</v>
       </c>
       <c r="U34" t="n">
-        <v>286.0272595894867</v>
+        <v>286.0255486803282</v>
       </c>
       <c r="V34" t="n">
         <v>252.9363510669392</v>
@@ -25168,49 +25168,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>413.8325483879333</v>
+        <v>413.7626217824606</v>
       </c>
       <c r="H35" t="n">
-        <v>327.6751233740921</v>
+        <v>326.9589875257946</v>
       </c>
       <c r="I35" t="n">
-        <v>165.8152863627317</v>
+        <v>163.1194409052448</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>84.55776703287157</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>68.55874285947689</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>45.0952138038613</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>41.28099931752746</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>52.11368889882763</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>78.45608620404292</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>145.9840597439011</v>
+        <v>73.24645594497376</v>
       </c>
       <c r="S35" t="n">
-        <v>182.5711814737726</v>
+        <v>180.9777289515631</v>
       </c>
       <c r="T35" t="n">
-        <v>218.4903622093286</v>
+        <v>218.1842584938718</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3959862152726</v>
+        <v>251.3903920868348</v>
       </c>
       <c r="V35" t="n">
         <v>328.5332215225193</v>
@@ -25247,22 +25247,22 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>135.4762758837533</v>
+        <v>135.4388618514006</v>
       </c>
       <c r="H36" t="n">
-        <v>105.1802814191576</v>
+        <v>104.8189406330145</v>
       </c>
       <c r="I36" t="n">
-        <v>67.67269073688161</v>
+        <v>66.38453216684378</v>
       </c>
       <c r="J36" t="n">
-        <v>71.99338681190339</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>46.07750428554137</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>16.33620635813517</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -25271,25 +25271,25 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>8.901750057177253</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>26.18458021020075</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>66.6665433882805</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>108.0796117500979</v>
+        <v>58.41412320779487</v>
       </c>
       <c r="S36" t="n">
-        <v>158.8025487711757</v>
+        <v>158.1075995298878</v>
       </c>
       <c r="T36" t="n">
-        <v>196.1780027799153</v>
+        <v>196.0271979740726</v>
       </c>
       <c r="U36" t="n">
-        <v>224.6211945460638</v>
+        <v>224.6187330965669</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
@@ -25326,16 +25326,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>167.431057567854</v>
+        <v>167.3996908999483</v>
       </c>
       <c r="H37" t="n">
-        <v>157.5573113517852</v>
+        <v>157.278433158951</v>
       </c>
       <c r="I37" t="n">
-        <v>139.9692581943449</v>
+        <v>139.0259769449628</v>
       </c>
       <c r="J37" t="n">
-        <v>56.42067761641638</v>
+        <v>54.20305419548392</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>41.36495098746441</v>
+        <v>38.73842027765228</v>
       </c>
       <c r="R37" t="n">
-        <v>152.7739102360676</v>
+        <v>151.3635507864171</v>
       </c>
       <c r="S37" t="n">
-        <v>214.366455857413</v>
+        <v>213.8198203812747</v>
       </c>
       <c r="T37" t="n">
-        <v>226.3732865346039</v>
+        <v>226.2392653171887</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0272595894867</v>
+        <v>286.0255486803282</v>
       </c>
       <c r="V37" t="n">
         <v>252.9363510669392</v>
@@ -25405,49 +25405,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>413.8325483879333</v>
+        <v>413.7626217824606</v>
       </c>
       <c r="H38" t="n">
-        <v>327.6751233740921</v>
+        <v>326.9589875257946</v>
       </c>
       <c r="I38" t="n">
-        <v>165.8152863627317</v>
+        <v>163.1194409052448</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>84.55776703287157</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>68.55874285947689</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>45.0952138038613</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>41.28099931752746</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>52.11368889882763</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>78.45608620404292</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>77.63898307599939</v>
+        <v>73.24645594497376</v>
       </c>
       <c r="S38" t="n">
-        <v>182.5711814737726</v>
+        <v>180.9777289515631</v>
       </c>
       <c r="T38" t="n">
-        <v>218.4903622093286</v>
+        <v>218.1842584938718</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3959862152726</v>
+        <v>251.3903920868348</v>
       </c>
       <c r="V38" t="n">
         <v>328.5332215225193</v>
@@ -25484,19 +25484,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>135.4762758837533</v>
+        <v>135.4388618514006</v>
       </c>
       <c r="H39" t="n">
-        <v>105.1802814191576</v>
+        <v>104.8189406330145</v>
       </c>
       <c r="I39" t="n">
-        <v>78.20346777140992</v>
+        <v>66.38453216684378</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>46.07750428554137</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25508,25 +25508,25 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>8.901750057177253</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>26.18458021020075</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>66.6665433882805</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>108.0796117500979</v>
+        <v>58.41412320779487</v>
       </c>
       <c r="S39" t="n">
-        <v>158.8025487711757</v>
+        <v>158.1075995298878</v>
       </c>
       <c r="T39" t="n">
-        <v>196.1780027799153</v>
+        <v>196.0271979740726</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6211945460638</v>
+        <v>224.6187330965669</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
@@ -25563,16 +25563,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>167.431057567854</v>
+        <v>167.3996908999483</v>
       </c>
       <c r="H40" t="n">
-        <v>157.5573113517852</v>
+        <v>157.278433158951</v>
       </c>
       <c r="I40" t="n">
-        <v>139.9692581943449</v>
+        <v>139.0259769449628</v>
       </c>
       <c r="J40" t="n">
-        <v>56.42067761641638</v>
+        <v>54.20305419548392</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25581,10 +25581,10 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>63.57576408212509</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>54.32560202794129</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -25593,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>41.36495098746441</v>
+        <v>38.73842027765227</v>
       </c>
       <c r="R40" t="n">
-        <v>152.7739102360676</v>
+        <v>151.3635507864171</v>
       </c>
       <c r="S40" t="n">
-        <v>214.366455857413</v>
+        <v>213.8198203812747</v>
       </c>
       <c r="T40" t="n">
-        <v>226.3732865346039</v>
+        <v>226.2392653171887</v>
       </c>
       <c r="U40" t="n">
-        <v>286.0272595894867</v>
+        <v>286.0255486803282</v>
       </c>
       <c r="V40" t="n">
         <v>252.9363510669392</v>
@@ -25642,13 +25642,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
-        <v>413.8325483879333</v>
+        <v>413.7626217824606</v>
       </c>
       <c r="H41" t="n">
-        <v>327.6751233740921</v>
+        <v>326.9589875257946</v>
       </c>
       <c r="I41" t="n">
-        <v>165.8152863627317</v>
+        <v>163.1194409052448</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25657,34 +25657,34 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>68.55874285947689</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>45.0952138038613</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>41.28099931752746</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>52.11368889882763</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>78.45608620404292</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>77.63898307599939</v>
+        <v>73.24645594497376</v>
       </c>
       <c r="S41" t="n">
-        <v>182.5711814737726</v>
+        <v>180.9777289515631</v>
       </c>
       <c r="T41" t="n">
-        <v>218.4903622093286</v>
+        <v>218.1842584938718</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3959862152726</v>
+        <v>251.3903920868348</v>
       </c>
       <c r="V41" t="n">
         <v>328.5332215225193</v>
@@ -25721,22 +25721,22 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>135.4762758837533</v>
+        <v>135.4388618514006</v>
       </c>
       <c r="H42" t="n">
-        <v>105.1802814191576</v>
+        <v>104.8189406330145</v>
       </c>
       <c r="I42" t="n">
-        <v>78.20346777140992</v>
+        <v>66.38453216684378</v>
       </c>
       <c r="J42" t="n">
-        <v>71.99338681190339</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>46.07750428554137</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>16.33620635813517</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -25745,25 +25745,25 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>8.901750057177253</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>26.18458021020075</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>66.6665433882805</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>108.0796117500979</v>
+        <v>58.41412320779487</v>
       </c>
       <c r="S42" t="n">
-        <v>158.8025487711757</v>
+        <v>158.1075995298878</v>
       </c>
       <c r="T42" t="n">
-        <v>196.1780027799153</v>
+        <v>196.0271979740726</v>
       </c>
       <c r="U42" t="n">
-        <v>224.6211945460638</v>
+        <v>224.6187330965669</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -25800,16 +25800,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>167.431057567854</v>
+        <v>167.3996908999483</v>
       </c>
       <c r="H43" t="n">
-        <v>157.5573113517852</v>
+        <v>157.278433158951</v>
       </c>
       <c r="I43" t="n">
-        <v>139.9692581943449</v>
+        <v>139.0259769449628</v>
       </c>
       <c r="J43" t="n">
-        <v>56.42067761641638</v>
+        <v>54.20305419548392</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25818,7 +25818,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>63.57576408212509</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -25830,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>41.36495098746441</v>
+        <v>38.73842027765227</v>
       </c>
       <c r="R43" t="n">
-        <v>152.7739102360676</v>
+        <v>151.3635507864171</v>
       </c>
       <c r="S43" t="n">
-        <v>214.366455857413</v>
+        <v>213.8198203812747</v>
       </c>
       <c r="T43" t="n">
-        <v>226.3732865346039</v>
+        <v>226.2392653171887</v>
       </c>
       <c r="U43" t="n">
-        <v>286.0272595894867</v>
+        <v>286.0255486803282</v>
       </c>
       <c r="V43" t="n">
         <v>252.9363510669392</v>
@@ -25879,49 +25879,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>413.6919290911495</v>
+        <v>413.7626217824606</v>
       </c>
       <c r="H44" t="n">
-        <v>326.2350060009042</v>
+        <v>326.9589875257946</v>
       </c>
       <c r="I44" t="n">
-        <v>160.3940609234714</v>
+        <v>163.1194409052448</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>66.6704651595997</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>46.36796318225549</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>20.40369570745969</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>16.18994664413864</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>28.4209193578335</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>58.23485555240069</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>91.1748077665065</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>68.80580617439929</v>
+        <v>73.24645594497376</v>
       </c>
       <c r="S44" t="n">
-        <v>179.3668192483101</v>
+        <v>180.9777289515631</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8748012376572</v>
+        <v>218.1842584938718</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3847366715299</v>
+        <v>251.3903920868348</v>
       </c>
       <c r="V44" t="n">
         <v>328.5332215225193</v>
@@ -25958,19 +25958,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>135.4010379269883</v>
+        <v>135.4388618514006</v>
       </c>
       <c r="H45" t="n">
-        <v>104.4536411525054</v>
+        <v>104.8189406330145</v>
       </c>
       <c r="I45" t="n">
-        <v>65.08226108510176</v>
+        <v>66.38453216684378</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>33.92822422317469</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25985,22 +25985,22 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>11.81743037845671</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>57.06248420542693</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>56.06572200612097</v>
+        <v>58.41412320779487</v>
       </c>
       <c r="S45" t="n">
-        <v>157.4050367233684</v>
+        <v>158.1075995298878</v>
       </c>
       <c r="T45" t="n">
-        <v>195.8747410155859</v>
+        <v>196.0271979740726</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6162446804871</v>
+        <v>224.6187330965669</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
@@ -26037,49 +26037,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3679805923089</v>
+        <v>167.3996908999483</v>
       </c>
       <c r="H46" t="n">
-        <v>156.9964996964846</v>
+        <v>157.278433158951</v>
       </c>
       <c r="I46" t="n">
-        <v>138.0723615115898</v>
+        <v>139.0259769449628</v>
       </c>
       <c r="J46" t="n">
-        <v>51.9611354453805</v>
+        <v>54.20305419548392</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>53.96362522541675</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>53.68816145191141</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>44.67310448839555</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>61.26815738962975</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>71.19864643810425</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>36.08311442614108</v>
+        <v>38.73842027765227</v>
       </c>
       <c r="R46" t="n">
-        <v>149.9377400447414</v>
+        <v>151.3635507864171</v>
       </c>
       <c r="S46" t="n">
-        <v>213.2671962017777</v>
+        <v>213.8198203812747</v>
       </c>
       <c r="T46" t="n">
-        <v>226.1037758209114</v>
+        <v>226.2392653171887</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0238190271842</v>
+        <v>286.0255486803282</v>
       </c>
       <c r="V46" t="n">
         <v>252.9363510669392</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>99524.3971567378</v>
+        <v>371347.5141293494</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>319110.9467307678</v>
+        <v>371321.1625726541</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>332120.8267993061</v>
+        <v>371321.1625726541</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>250554.2174892507</v>
+        <v>371425.3039649557</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>317168.0508791709</v>
+        <v>371425.3039649557</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>276091.1217937342</v>
+        <v>371425.3039649557</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>328229.5027277186</v>
+        <v>371425.3039649557</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>272695.9883329739</v>
+        <v>371425.3039649557</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>285204.4595909879</v>
+        <v>371425.3039649557</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>289215.1013327176</v>
+        <v>371425.3039649557</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>299556.3852931886</v>
+        <v>371425.3039649557</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>307062.9017128241</v>
+        <v>371425.3039649557</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>306401.7374237876</v>
+        <v>371425.3039649557</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42439.71590049706</v>
+        <v>42439.71590049707</v>
       </c>
       <c r="C2" t="n">
-        <v>11374.2168179129</v>
+        <v>42439.71590049707</v>
       </c>
       <c r="D2" t="n">
         <v>42439.71590049706</v>
       </c>
       <c r="E2" t="n">
-        <v>40007.14117250242</v>
+        <v>45974.02298300366</v>
       </c>
       <c r="F2" t="n">
-        <v>41493.98460890679</v>
+        <v>45974.02298300366</v>
       </c>
       <c r="G2" t="n">
-        <v>32172.08640204333</v>
+        <v>46210.22446309759</v>
       </c>
       <c r="H2" t="n">
-        <v>39785.09593231992</v>
+        <v>46210.22446309759</v>
       </c>
       <c r="I2" t="n">
-        <v>35090.58975112716</v>
+        <v>46210.22446309758</v>
       </c>
       <c r="J2" t="n">
-        <v>41049.26185786822</v>
+        <v>46210.22446309759</v>
       </c>
       <c r="K2" t="n">
-        <v>34702.57449846884</v>
+        <v>46210.2244630976</v>
       </c>
       <c r="L2" t="n">
-        <v>36132.11407081331</v>
+        <v>46210.2244630976</v>
       </c>
       <c r="M2" t="n">
-        <v>36590.47312701098</v>
+        <v>46210.22446309758</v>
       </c>
       <c r="N2" t="n">
-        <v>37772.33415106479</v>
+        <v>46210.22446309758</v>
       </c>
       <c r="O2" t="n">
-        <v>38630.22174188029</v>
+        <v>46210.22446309759</v>
       </c>
       <c r="P2" t="n">
-        <v>38996.99507039335</v>
+        <v>46210.22446309759</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>13523.79789390538</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>23281.21623271084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42439.71590049705</v>
+        <v>42439.71590049706</v>
       </c>
       <c r="C4" t="n">
-        <v>11374.2168179129</v>
+        <v>42439.71590049706</v>
       </c>
       <c r="D4" t="n">
-        <v>42439.71590049705</v>
+        <v>42439.71590049706</v>
       </c>
       <c r="E4" t="n">
-        <v>9055.602643874077</v>
+        <v>15022.48445437534</v>
       </c>
       <c r="F4" t="n">
-        <v>10542.44608027845</v>
+        <v>15022.48445437534</v>
       </c>
       <c r="G4" t="n">
-        <v>1220.547873414992</v>
+        <v>13296.06437594909</v>
       </c>
       <c r="H4" t="n">
-        <v>8833.557403691573</v>
+        <v>13296.06437594909</v>
       </c>
       <c r="I4" t="n">
-        <v>4139.051222498832</v>
+        <v>13296.06437594909</v>
       </c>
       <c r="J4" t="n">
-        <v>10097.72332923987</v>
+        <v>13296.06437594909</v>
       </c>
       <c r="K4" t="n">
-        <v>3751.035969840492</v>
+        <v>13296.06437594909</v>
       </c>
       <c r="L4" t="n">
-        <v>5180.575542184966</v>
+        <v>13296.06437594909</v>
       </c>
       <c r="M4" t="n">
-        <v>5638.934598382641</v>
+        <v>13296.0643759491</v>
       </c>
       <c r="N4" t="n">
-        <v>6820.795622436444</v>
+        <v>13296.06437594909</v>
       </c>
       <c r="O4" t="n">
-        <v>7678.683213251952</v>
+        <v>13296.06437594909</v>
       </c>
       <c r="P4" t="n">
-        <v>4175.025628239261</v>
+        <v>13296.06437594909</v>
       </c>
     </row>
     <row r="5">
@@ -26484,34 +26484,34 @@
         <v>5543.227322958715</v>
       </c>
       <c r="G5" t="n">
-        <v>5543.227322958715</v>
+        <v>5922.421822785898</v>
       </c>
       <c r="H5" t="n">
-        <v>5543.227322958715</v>
+        <v>5922.421822785898</v>
       </c>
       <c r="I5" t="n">
-        <v>5543.227322958715</v>
+        <v>5922.421822785898</v>
       </c>
       <c r="J5" t="n">
-        <v>5543.227322958715</v>
+        <v>5922.421822785898</v>
       </c>
       <c r="K5" t="n">
-        <v>5543.227322958715</v>
+        <v>5922.421822785898</v>
       </c>
       <c r="L5" t="n">
-        <v>5543.227322958715</v>
+        <v>5922.421822785898</v>
       </c>
       <c r="M5" t="n">
-        <v>5543.227322958715</v>
+        <v>5922.421822785898</v>
       </c>
       <c r="N5" t="n">
-        <v>5543.227322958715</v>
+        <v>5922.421822785898</v>
       </c>
       <c r="O5" t="n">
-        <v>5543.227322958715</v>
+        <v>5922.421822785898</v>
       </c>
       <c r="P5" t="n">
-        <v>6305.770614593474</v>
+        <v>5922.421822785898</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.59999999999</v>
+        <v>-48670.62072781127</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-48670.62072781127</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.59999999999</v>
+        <v>-48670.62072781128</v>
       </c>
       <c r="E6" t="n">
-        <v>-178878.1778285964</v>
+        <v>-193479.4101710944</v>
       </c>
       <c r="F6" t="n">
-        <v>25408.31120566962</v>
+        <v>10807.07886317166</v>
       </c>
       <c r="G6" t="n">
-        <v>25408.31120566962</v>
+        <v>-1103.766787028992</v>
       </c>
       <c r="H6" t="n">
-        <v>25408.31120566963</v>
+        <v>12420.03110687639</v>
       </c>
       <c r="I6" t="n">
-        <v>25408.31120566962</v>
+        <v>12420.03110687638</v>
       </c>
       <c r="J6" t="n">
-        <v>25408.31120566963</v>
+        <v>12420.03110687639</v>
       </c>
       <c r="K6" t="n">
-        <v>25408.31120566963</v>
+        <v>12420.03110687639</v>
       </c>
       <c r="L6" t="n">
-        <v>25408.31120566963</v>
+        <v>12420.03110687639</v>
       </c>
       <c r="M6" t="n">
-        <v>25408.31120566962</v>
+        <v>12420.03110687637</v>
       </c>
       <c r="N6" t="n">
-        <v>25408.31120566963</v>
+        <v>12420.03110687638</v>
       </c>
       <c r="O6" t="n">
-        <v>25408.31120566962</v>
+        <v>12420.03110687639</v>
       </c>
       <c r="P6" t="n">
-        <v>5234.982594849775</v>
+        <v>12420.03110687639</v>
       </c>
     </row>
   </sheetData>
@@ -26752,34 +26752,34 @@
         <v>254.2764827045282</v>
       </c>
       <c r="G3" t="n">
-        <v>254.2764827045282</v>
+        <v>271.6707258158669</v>
       </c>
       <c r="H3" t="n">
-        <v>254.2764827045282</v>
+        <v>271.6707258158669</v>
       </c>
       <c r="I3" t="n">
-        <v>254.2764827045282</v>
+        <v>271.6707258158669</v>
       </c>
       <c r="J3" t="n">
-        <v>254.2764827045282</v>
+        <v>271.6707258158669</v>
       </c>
       <c r="K3" t="n">
-        <v>254.2764827045282</v>
+        <v>271.6707258158669</v>
       </c>
       <c r="L3" t="n">
-        <v>254.2764827045282</v>
+        <v>271.6707258158669</v>
       </c>
       <c r="M3" t="n">
-        <v>254.2764827045282</v>
+        <v>271.6707258158669</v>
       </c>
       <c r="N3" t="n">
-        <v>254.2764827045282</v>
+        <v>271.6707258158669</v>
       </c>
       <c r="O3" t="n">
-        <v>254.2764827045282</v>
+        <v>271.6707258158669</v>
       </c>
       <c r="P3" t="n">
-        <v>289.2555327795172</v>
+        <v>271.6707258158669</v>
       </c>
     </row>
     <row r="4">
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>17.39424311133868</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>34.97905007498895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31764,7 +31764,7 @@
         <v>86.75939145303902</v>
       </c>
       <c r="K11" t="n">
-        <v>130.0298377359845</v>
+        <v>130.0298377359844</v>
       </c>
       <c r="L11" t="n">
         <v>161.3135117362607</v>
@@ -31788,13 +31788,13 @@
         <v>64.21183962487768</v>
       </c>
       <c r="S11" t="n">
-        <v>23.29377024976659</v>
+        <v>23.29377024976658</v>
       </c>
       <c r="T11" t="n">
-        <v>4.474754987091746</v>
+        <v>4.474754987091747</v>
       </c>
       <c r="U11" t="n">
-        <v>0.081777361271808</v>
+        <v>0.08177736127180799</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,7 +31834,7 @@
         <v>0.5469343212889852</v>
       </c>
       <c r="H12" t="n">
-        <v>5.282234102975201</v>
+        <v>5.2822341029752</v>
       </c>
       <c r="I12" t="n">
         <v>18.83085272859006</v>
@@ -31843,7 +31843,7 @@
         <v>51.67329918809664</v>
       </c>
       <c r="K12" t="n">
-        <v>88.31789871445865</v>
+        <v>88.31789871445864</v>
       </c>
       <c r="L12" t="n">
         <v>118.7543139272422</v>
@@ -31861,19 +31861,19 @@
         <v>104.4404670187712</v>
       </c>
       <c r="Q12" t="n">
-        <v>69.81568634559048</v>
+        <v>69.81568634559046</v>
       </c>
       <c r="R12" t="n">
         <v>33.95790461476701</v>
       </c>
       <c r="S12" t="n">
-        <v>10.15906513446865</v>
+        <v>10.15906513446864</v>
       </c>
       <c r="T12" t="n">
         <v>2.204529128353409</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03598252113743326</v>
+        <v>0.03598252113743325</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31946,7 +31946,7 @@
         <v>20.61723743371469</v>
       </c>
       <c r="S13" t="n">
-        <v>7.990951104009515</v>
+        <v>7.990951104009514</v>
       </c>
       <c r="T13" t="n">
         <v>1.959179456903741</v>
@@ -32001,7 +32001,7 @@
         <v>86.75939145303902</v>
       </c>
       <c r="K14" t="n">
-        <v>130.0298377359845</v>
+        <v>130.0298377359844</v>
       </c>
       <c r="L14" t="n">
         <v>161.3135117362607</v>
@@ -32025,13 +32025,13 @@
         <v>64.21183962487768</v>
       </c>
       <c r="S14" t="n">
-        <v>23.29377024976659</v>
+        <v>23.29377024976658</v>
       </c>
       <c r="T14" t="n">
         <v>4.474754987091747</v>
       </c>
       <c r="U14" t="n">
-        <v>0.081777361271808</v>
+        <v>0.08177736127180799</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,16 +32071,16 @@
         <v>0.5469343212889852</v>
       </c>
       <c r="H15" t="n">
-        <v>5.282234102975201</v>
+        <v>5.2822341029752</v>
       </c>
       <c r="I15" t="n">
-        <v>18.83085272859007</v>
+        <v>18.83085272859006</v>
       </c>
       <c r="J15" t="n">
         <v>51.67329918809664</v>
       </c>
       <c r="K15" t="n">
-        <v>88.31789871445865</v>
+        <v>88.31789871445864</v>
       </c>
       <c r="L15" t="n">
         <v>118.7543139272422</v>
@@ -32098,19 +32098,19 @@
         <v>104.4404670187712</v>
       </c>
       <c r="Q15" t="n">
-        <v>69.81568634559048</v>
+        <v>69.81568634559046</v>
       </c>
       <c r="R15" t="n">
         <v>33.95790461476701</v>
       </c>
       <c r="S15" t="n">
-        <v>10.15906513446865</v>
+        <v>10.15906513446864</v>
       </c>
       <c r="T15" t="n">
         <v>2.204529128353409</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03598252113743326</v>
+        <v>0.03598252113743325</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4585313622540673</v>
+        <v>0.4585313622540672</v>
       </c>
       <c r="H16" t="n">
-        <v>4.07676065713162</v>
+        <v>4.076760657131619</v>
       </c>
       <c r="I16" t="n">
         <v>13.78928860305868</v>
@@ -32159,13 +32159,13 @@
         <v>32.41816731136255</v>
       </c>
       <c r="K16" t="n">
-        <v>53.27300736006344</v>
+        <v>53.27300736006343</v>
       </c>
       <c r="L16" t="n">
         <v>68.17110816639106</v>
       </c>
       <c r="M16" t="n">
-        <v>71.87687526678982</v>
+        <v>71.87687526678981</v>
       </c>
       <c r="N16" t="n">
         <v>70.16780382566108</v>
@@ -32183,13 +32183,13 @@
         <v>20.61723743371469</v>
       </c>
       <c r="S16" t="n">
-        <v>7.990951104009515</v>
+        <v>7.990951104009514</v>
       </c>
       <c r="T16" t="n">
-        <v>1.959179456903742</v>
+        <v>1.959179456903741</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02501080157749461</v>
+        <v>0.0250108015774946</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.0222170158976</v>
+        <v>1.092143621370318</v>
       </c>
       <c r="H17" t="n">
-        <v>10.4687800140613</v>
+        <v>11.18491586235877</v>
       </c>
       <c r="I17" t="n">
-        <v>39.40902150539227</v>
+        <v>42.10486696287924</v>
       </c>
       <c r="J17" t="n">
-        <v>86.75939145303902</v>
+        <v>92.69432468427914</v>
       </c>
       <c r="K17" t="n">
-        <v>130.0298377359845</v>
+        <v>138.9247641768847</v>
       </c>
       <c r="L17" t="n">
-        <v>161.3135117362607</v>
+        <v>172.3484545293967</v>
       </c>
       <c r="M17" t="n">
-        <v>179.4923635927296</v>
+        <v>191.770863655941</v>
       </c>
       <c r="N17" t="n">
-        <v>182.3967376891487</v>
+        <v>194.8739167201595</v>
       </c>
       <c r="O17" t="n">
-        <v>172.2320672373169</v>
+        <v>184.0139135851584</v>
       </c>
       <c r="P17" t="n">
-        <v>146.9960846573449</v>
+        <v>157.0516179325786</v>
       </c>
       <c r="Q17" t="n">
-        <v>110.387937775512</v>
+        <v>117.939224492254</v>
       </c>
       <c r="R17" t="n">
-        <v>64.21183962487768</v>
+        <v>68.60436675590331</v>
       </c>
       <c r="S17" t="n">
-        <v>23.29377024976659</v>
+        <v>24.88722277197616</v>
       </c>
       <c r="T17" t="n">
-        <v>4.474754987091747</v>
+        <v>4.780858702548571</v>
       </c>
       <c r="U17" t="n">
-        <v>0.081777361271808</v>
+        <v>0.08737148970962545</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5469343212889852</v>
+        <v>0.5843483536416759</v>
       </c>
       <c r="H18" t="n">
-        <v>5.282234102975201</v>
+        <v>5.643574889118293</v>
       </c>
       <c r="I18" t="n">
-        <v>18.83085272859007</v>
+        <v>20.11901129862788</v>
       </c>
       <c r="J18" t="n">
-        <v>51.67329918809664</v>
+        <v>55.20810476226028</v>
       </c>
       <c r="K18" t="n">
-        <v>88.31789871445865</v>
+        <v>94.35944445625256</v>
       </c>
       <c r="L18" t="n">
-        <v>118.7543139272422</v>
+        <v>126.8779177501367</v>
       </c>
       <c r="M18" t="n">
         <v>138.5806830739679</v>
@@ -32329,25 +32329,25 @@
         <v>128.05816928125</v>
       </c>
       <c r="O18" t="n">
-        <v>130.1295882761561</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P18" t="n">
-        <v>104.4404670187712</v>
+        <v>111.5849062318039</v>
       </c>
       <c r="Q18" t="n">
-        <v>69.81568634559048</v>
+        <v>74.59155475608482</v>
       </c>
       <c r="R18" t="n">
-        <v>33.95790461476701</v>
+        <v>36.28085655329635</v>
       </c>
       <c r="S18" t="n">
-        <v>10.15906513446865</v>
+        <v>10.85401437575656</v>
       </c>
       <c r="T18" t="n">
-        <v>2.204529128353409</v>
+        <v>2.355333934196053</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03598252113743326</v>
+        <v>0.03844397063432081</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4585313622540673</v>
+        <v>0.4898980301597599</v>
       </c>
       <c r="H19" t="n">
-        <v>4.07676065713162</v>
+        <v>4.355638849965868</v>
       </c>
       <c r="I19" t="n">
-        <v>13.78928860305868</v>
+        <v>14.73256985244078</v>
       </c>
       <c r="J19" t="n">
-        <v>32.41816731136255</v>
+        <v>34.63579073229502</v>
       </c>
       <c r="K19" t="n">
-        <v>53.27300736006344</v>
+        <v>56.9172438676521</v>
       </c>
       <c r="L19" t="n">
-        <v>68.17110816639106</v>
+        <v>72.83447622938832</v>
       </c>
       <c r="M19" t="n">
-        <v>71.87687526678982</v>
+        <v>76.79374303677035</v>
       </c>
       <c r="N19" t="n">
-        <v>70.16780382566108</v>
+        <v>74.96775946981131</v>
       </c>
       <c r="O19" t="n">
-        <v>64.81132382114764</v>
+        <v>69.24485975385409</v>
       </c>
       <c r="P19" t="n">
-        <v>55.45728403116462</v>
+        <v>59.25093993859494</v>
       </c>
       <c r="Q19" t="n">
-        <v>38.39574888838376</v>
+        <v>41.0222795981959</v>
       </c>
       <c r="R19" t="n">
-        <v>20.61723743371469</v>
+        <v>22.0275968833652</v>
       </c>
       <c r="S19" t="n">
-        <v>7.990951104009515</v>
+        <v>8.537586580147813</v>
       </c>
       <c r="T19" t="n">
-        <v>1.959179456903742</v>
+        <v>2.093200674318973</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02501080157749461</v>
+        <v>0.02672171073598693</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.0222170158976</v>
+        <v>1.092143621370318</v>
       </c>
       <c r="H20" t="n">
-        <v>10.4687800140613</v>
+        <v>11.18491586235877</v>
       </c>
       <c r="I20" t="n">
-        <v>39.40902150539227</v>
+        <v>42.10486696287924</v>
       </c>
       <c r="J20" t="n">
-        <v>86.75939145303902</v>
+        <v>92.69432468427914</v>
       </c>
       <c r="K20" t="n">
-        <v>130.0298377359845</v>
+        <v>138.9247641768847</v>
       </c>
       <c r="L20" t="n">
-        <v>161.3135117362607</v>
+        <v>172.3484545293967</v>
       </c>
       <c r="M20" t="n">
-        <v>179.4923635927296</v>
+        <v>191.770863655941</v>
       </c>
       <c r="N20" t="n">
-        <v>182.3967376891487</v>
+        <v>194.8739167201595</v>
       </c>
       <c r="O20" t="n">
-        <v>172.2320672373169</v>
+        <v>184.0139135851584</v>
       </c>
       <c r="P20" t="n">
-        <v>146.9960846573449</v>
+        <v>157.0516179325786</v>
       </c>
       <c r="Q20" t="n">
-        <v>110.387937775512</v>
+        <v>117.939224492254</v>
       </c>
       <c r="R20" t="n">
-        <v>64.21183962487768</v>
+        <v>68.60436675590331</v>
       </c>
       <c r="S20" t="n">
-        <v>23.29377024976659</v>
+        <v>24.88722277197616</v>
       </c>
       <c r="T20" t="n">
-        <v>4.474754987091747</v>
+        <v>4.780858702548571</v>
       </c>
       <c r="U20" t="n">
-        <v>0.081777361271808</v>
+        <v>0.08737148970962545</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5469343212889852</v>
+        <v>0.5843483536416759</v>
       </c>
       <c r="H21" t="n">
-        <v>5.282234102975201</v>
+        <v>5.643574889118293</v>
       </c>
       <c r="I21" t="n">
-        <v>18.83085272859007</v>
+        <v>20.11901129862788</v>
       </c>
       <c r="J21" t="n">
-        <v>51.67329918809664</v>
+        <v>55.20810476226028</v>
       </c>
       <c r="K21" t="n">
-        <v>88.31789871445865</v>
+        <v>94.35944445625256</v>
       </c>
       <c r="L21" t="n">
-        <v>118.7543139272422</v>
+        <v>126.8779177501367</v>
       </c>
       <c r="M21" t="n">
         <v>138.5806830739679</v>
@@ -32566,25 +32566,25 @@
         <v>128.05816928125</v>
       </c>
       <c r="O21" t="n">
-        <v>130.1295882761561</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P21" t="n">
-        <v>104.4404670187712</v>
+        <v>111.5849062318039</v>
       </c>
       <c r="Q21" t="n">
-        <v>69.81568634559048</v>
+        <v>74.59155475608482</v>
       </c>
       <c r="R21" t="n">
-        <v>33.95790461476701</v>
+        <v>36.28085655329635</v>
       </c>
       <c r="S21" t="n">
-        <v>10.15906513446865</v>
+        <v>10.85401437575656</v>
       </c>
       <c r="T21" t="n">
-        <v>2.204529128353409</v>
+        <v>2.355333934196053</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03598252113743326</v>
+        <v>0.03844397063432081</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4585313622540673</v>
+        <v>0.4898980301597599</v>
       </c>
       <c r="H22" t="n">
-        <v>4.07676065713162</v>
+        <v>4.355638849965868</v>
       </c>
       <c r="I22" t="n">
-        <v>13.78928860305868</v>
+        <v>14.73256985244078</v>
       </c>
       <c r="J22" t="n">
-        <v>32.41816731136255</v>
+        <v>34.63579073229502</v>
       </c>
       <c r="K22" t="n">
-        <v>53.27300736006344</v>
+        <v>56.9172438676521</v>
       </c>
       <c r="L22" t="n">
-        <v>68.17110816639106</v>
+        <v>72.83447622938832</v>
       </c>
       <c r="M22" t="n">
-        <v>71.87687526678982</v>
+        <v>76.79374303677035</v>
       </c>
       <c r="N22" t="n">
-        <v>70.16780382566108</v>
+        <v>74.96775946981131</v>
       </c>
       <c r="O22" t="n">
-        <v>64.81132382114764</v>
+        <v>69.24485975385409</v>
       </c>
       <c r="P22" t="n">
-        <v>55.45728403116462</v>
+        <v>59.25093993859494</v>
       </c>
       <c r="Q22" t="n">
-        <v>38.39574888838376</v>
+        <v>41.0222795981959</v>
       </c>
       <c r="R22" t="n">
-        <v>20.61723743371469</v>
+        <v>22.0275968833652</v>
       </c>
       <c r="S22" t="n">
-        <v>7.990951104009515</v>
+        <v>8.537586580147813</v>
       </c>
       <c r="T22" t="n">
-        <v>1.959179456903742</v>
+        <v>2.093200674318973</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02501080157749461</v>
+        <v>0.02672171073598693</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.0222170158976</v>
+        <v>1.092143621370318</v>
       </c>
       <c r="H23" t="n">
-        <v>10.4687800140613</v>
+        <v>11.18491586235877</v>
       </c>
       <c r="I23" t="n">
-        <v>39.40902150539227</v>
+        <v>42.10486696287924</v>
       </c>
       <c r="J23" t="n">
-        <v>86.75939145303902</v>
+        <v>92.69432468427914</v>
       </c>
       <c r="K23" t="n">
-        <v>130.0298377359845</v>
+        <v>138.9247641768847</v>
       </c>
       <c r="L23" t="n">
-        <v>161.3135117362607</v>
+        <v>172.3484545293967</v>
       </c>
       <c r="M23" t="n">
-        <v>179.4923635927296</v>
+        <v>191.770863655941</v>
       </c>
       <c r="N23" t="n">
-        <v>182.3967376891487</v>
+        <v>194.8739167201595</v>
       </c>
       <c r="O23" t="n">
-        <v>172.2320672373169</v>
+        <v>184.0139135851584</v>
       </c>
       <c r="P23" t="n">
-        <v>146.9960846573449</v>
+        <v>157.0516179325786</v>
       </c>
       <c r="Q23" t="n">
-        <v>110.387937775512</v>
+        <v>117.939224492254</v>
       </c>
       <c r="R23" t="n">
-        <v>64.21183962487768</v>
+        <v>68.60436675590331</v>
       </c>
       <c r="S23" t="n">
-        <v>23.29377024976659</v>
+        <v>24.88722277197616</v>
       </c>
       <c r="T23" t="n">
-        <v>4.474754987091747</v>
+        <v>4.780858702548571</v>
       </c>
       <c r="U23" t="n">
-        <v>0.081777361271808</v>
+        <v>0.08737148970962545</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5469343212889852</v>
+        <v>0.5843483536416759</v>
       </c>
       <c r="H24" t="n">
-        <v>5.282234102975201</v>
+        <v>5.643574889118293</v>
       </c>
       <c r="I24" t="n">
-        <v>18.83085272859007</v>
+        <v>20.11901129862788</v>
       </c>
       <c r="J24" t="n">
-        <v>51.67329918809664</v>
+        <v>55.20810476226028</v>
       </c>
       <c r="K24" t="n">
-        <v>88.31789871445865</v>
+        <v>94.35944445625256</v>
       </c>
       <c r="L24" t="n">
-        <v>118.7543139272422</v>
+        <v>126.8779177501367</v>
       </c>
       <c r="M24" t="n">
         <v>138.5806830739679</v>
@@ -32803,25 +32803,25 @@
         <v>128.05816928125</v>
       </c>
       <c r="O24" t="n">
-        <v>130.1295882761561</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P24" t="n">
-        <v>104.4404670187712</v>
+        <v>111.5849062318039</v>
       </c>
       <c r="Q24" t="n">
-        <v>69.81568634559048</v>
+        <v>74.59155475608482</v>
       </c>
       <c r="R24" t="n">
-        <v>33.95790461476701</v>
+        <v>36.28085655329635</v>
       </c>
       <c r="S24" t="n">
-        <v>10.15906513446865</v>
+        <v>10.85401437575656</v>
       </c>
       <c r="T24" t="n">
-        <v>2.204529128353409</v>
+        <v>2.355333934196053</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03598252113743326</v>
+        <v>0.03844397063432081</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4585313622540673</v>
+        <v>0.4898980301597599</v>
       </c>
       <c r="H25" t="n">
-        <v>4.07676065713162</v>
+        <v>4.355638849965868</v>
       </c>
       <c r="I25" t="n">
-        <v>13.78928860305868</v>
+        <v>14.73256985244078</v>
       </c>
       <c r="J25" t="n">
-        <v>32.41816731136255</v>
+        <v>34.63579073229502</v>
       </c>
       <c r="K25" t="n">
-        <v>53.27300736006344</v>
+        <v>56.9172438676521</v>
       </c>
       <c r="L25" t="n">
-        <v>68.17110816639106</v>
+        <v>72.83447622938832</v>
       </c>
       <c r="M25" t="n">
-        <v>71.87687526678982</v>
+        <v>76.79374303677035</v>
       </c>
       <c r="N25" t="n">
-        <v>70.16780382566108</v>
+        <v>74.96775946981131</v>
       </c>
       <c r="O25" t="n">
-        <v>64.81132382114764</v>
+        <v>69.24485975385409</v>
       </c>
       <c r="P25" t="n">
-        <v>55.45728403116462</v>
+        <v>59.25093993859494</v>
       </c>
       <c r="Q25" t="n">
-        <v>38.39574888838376</v>
+        <v>41.0222795981959</v>
       </c>
       <c r="R25" t="n">
-        <v>20.61723743371469</v>
+        <v>22.0275968833652</v>
       </c>
       <c r="S25" t="n">
-        <v>7.990951104009515</v>
+        <v>8.537586580147813</v>
       </c>
       <c r="T25" t="n">
-        <v>1.959179456903742</v>
+        <v>2.093200674318973</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02501080157749461</v>
+        <v>0.02672171073598693</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.0222170158976</v>
+        <v>1.092143621370318</v>
       </c>
       <c r="H26" t="n">
-        <v>10.4687800140613</v>
+        <v>11.18491586235877</v>
       </c>
       <c r="I26" t="n">
-        <v>39.40902150539227</v>
+        <v>42.10486696287924</v>
       </c>
       <c r="J26" t="n">
-        <v>86.75939145303902</v>
+        <v>92.69432468427914</v>
       </c>
       <c r="K26" t="n">
-        <v>130.0298377359845</v>
+        <v>138.9247641768847</v>
       </c>
       <c r="L26" t="n">
-        <v>161.3135117362607</v>
+        <v>172.3484545293967</v>
       </c>
       <c r="M26" t="n">
-        <v>179.4923635927296</v>
+        <v>191.770863655941</v>
       </c>
       <c r="N26" t="n">
-        <v>182.3967376891487</v>
+        <v>194.8739167201595</v>
       </c>
       <c r="O26" t="n">
-        <v>172.2320672373169</v>
+        <v>184.0139135851584</v>
       </c>
       <c r="P26" t="n">
-        <v>146.9960846573449</v>
+        <v>157.0516179325786</v>
       </c>
       <c r="Q26" t="n">
-        <v>110.387937775512</v>
+        <v>117.939224492254</v>
       </c>
       <c r="R26" t="n">
-        <v>64.21183962487768</v>
+        <v>68.60436675590331</v>
       </c>
       <c r="S26" t="n">
-        <v>23.29377024976659</v>
+        <v>24.88722277197616</v>
       </c>
       <c r="T26" t="n">
-        <v>4.474754987091747</v>
+        <v>4.780858702548571</v>
       </c>
       <c r="U26" t="n">
-        <v>0.081777361271808</v>
+        <v>0.08737148970962545</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5469343212889852</v>
+        <v>0.5843483536416759</v>
       </c>
       <c r="H27" t="n">
-        <v>5.282234102975201</v>
+        <v>5.643574889118293</v>
       </c>
       <c r="I27" t="n">
-        <v>18.83085272859007</v>
+        <v>20.11901129862788</v>
       </c>
       <c r="J27" t="n">
-        <v>51.67329918809664</v>
+        <v>55.20810476226028</v>
       </c>
       <c r="K27" t="n">
-        <v>88.31789871445865</v>
+        <v>94.35944445625256</v>
       </c>
       <c r="L27" t="n">
-        <v>118.7543139272422</v>
+        <v>126.8779177501367</v>
       </c>
       <c r="M27" t="n">
         <v>138.5806830739679</v>
@@ -33040,25 +33040,25 @@
         <v>128.05816928125</v>
       </c>
       <c r="O27" t="n">
-        <v>130.1295882761561</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P27" t="n">
-        <v>104.4404670187712</v>
+        <v>111.5849062318039</v>
       </c>
       <c r="Q27" t="n">
-        <v>69.81568634559048</v>
+        <v>74.59155475608482</v>
       </c>
       <c r="R27" t="n">
-        <v>33.95790461476701</v>
+        <v>36.28085655329635</v>
       </c>
       <c r="S27" t="n">
-        <v>10.15906513446865</v>
+        <v>10.85401437575656</v>
       </c>
       <c r="T27" t="n">
-        <v>2.204529128353409</v>
+        <v>2.355333934196053</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03598252113743326</v>
+        <v>0.03844397063432081</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4585313622540673</v>
+        <v>0.4898980301597599</v>
       </c>
       <c r="H28" t="n">
-        <v>4.07676065713162</v>
+        <v>4.355638849965868</v>
       </c>
       <c r="I28" t="n">
-        <v>13.78928860305868</v>
+        <v>14.73256985244078</v>
       </c>
       <c r="J28" t="n">
-        <v>32.41816731136255</v>
+        <v>34.63579073229502</v>
       </c>
       <c r="K28" t="n">
-        <v>53.27300736006344</v>
+        <v>56.9172438676521</v>
       </c>
       <c r="L28" t="n">
-        <v>68.17110816639106</v>
+        <v>72.83447622938832</v>
       </c>
       <c r="M28" t="n">
-        <v>71.87687526678982</v>
+        <v>76.79374303677035</v>
       </c>
       <c r="N28" t="n">
-        <v>70.16780382566108</v>
+        <v>74.96775946981131</v>
       </c>
       <c r="O28" t="n">
-        <v>64.81132382114764</v>
+        <v>69.24485975385409</v>
       </c>
       <c r="P28" t="n">
-        <v>55.45728403116462</v>
+        <v>59.25093993859494</v>
       </c>
       <c r="Q28" t="n">
-        <v>38.39574888838376</v>
+        <v>41.0222795981959</v>
       </c>
       <c r="R28" t="n">
-        <v>20.61723743371469</v>
+        <v>22.0275968833652</v>
       </c>
       <c r="S28" t="n">
-        <v>7.990951104009515</v>
+        <v>8.537586580147813</v>
       </c>
       <c r="T28" t="n">
-        <v>1.959179456903742</v>
+        <v>2.093200674318973</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02501080157749461</v>
+        <v>0.02672171073598693</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.0222170158976</v>
+        <v>1.092143621370318</v>
       </c>
       <c r="H29" t="n">
-        <v>10.4687800140613</v>
+        <v>11.18491586235877</v>
       </c>
       <c r="I29" t="n">
-        <v>39.40902150539227</v>
+        <v>42.10486696287924</v>
       </c>
       <c r="J29" t="n">
-        <v>86.75939145303902</v>
+        <v>92.69432468427914</v>
       </c>
       <c r="K29" t="n">
-        <v>130.0298377359845</v>
+        <v>138.9247641768847</v>
       </c>
       <c r="L29" t="n">
-        <v>161.3135117362607</v>
+        <v>172.3484545293967</v>
       </c>
       <c r="M29" t="n">
-        <v>179.4923635927296</v>
+        <v>191.770863655941</v>
       </c>
       <c r="N29" t="n">
-        <v>182.3967376891487</v>
+        <v>194.8739167201595</v>
       </c>
       <c r="O29" t="n">
-        <v>172.2320672373169</v>
+        <v>184.0139135851584</v>
       </c>
       <c r="P29" t="n">
-        <v>146.9960846573449</v>
+        <v>157.0516179325786</v>
       </c>
       <c r="Q29" t="n">
-        <v>110.387937775512</v>
+        <v>117.939224492254</v>
       </c>
       <c r="R29" t="n">
-        <v>64.21183962487768</v>
+        <v>68.60436675590331</v>
       </c>
       <c r="S29" t="n">
-        <v>23.29377024976659</v>
+        <v>24.88722277197616</v>
       </c>
       <c r="T29" t="n">
-        <v>4.474754987091747</v>
+        <v>4.780858702548571</v>
       </c>
       <c r="U29" t="n">
-        <v>0.081777361271808</v>
+        <v>0.08737148970962545</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5469343212889852</v>
+        <v>0.5843483536416759</v>
       </c>
       <c r="H30" t="n">
-        <v>5.282234102975201</v>
+        <v>5.643574889118293</v>
       </c>
       <c r="I30" t="n">
-        <v>18.83085272859007</v>
+        <v>20.11901129862788</v>
       </c>
       <c r="J30" t="n">
-        <v>51.67329918809664</v>
+        <v>55.20810476226028</v>
       </c>
       <c r="K30" t="n">
-        <v>88.31789871445865</v>
+        <v>94.35944445625256</v>
       </c>
       <c r="L30" t="n">
-        <v>118.7543139272422</v>
+        <v>126.8779177501367</v>
       </c>
       <c r="M30" t="n">
         <v>138.5806830739679</v>
@@ -33277,25 +33277,25 @@
         <v>128.05816928125</v>
       </c>
       <c r="O30" t="n">
-        <v>130.1295882761561</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P30" t="n">
-        <v>104.4404670187712</v>
+        <v>111.5849062318039</v>
       </c>
       <c r="Q30" t="n">
-        <v>69.81568634559048</v>
+        <v>74.59155475608482</v>
       </c>
       <c r="R30" t="n">
-        <v>33.95790461476701</v>
+        <v>36.28085655329635</v>
       </c>
       <c r="S30" t="n">
-        <v>10.15906513446865</v>
+        <v>10.85401437575656</v>
       </c>
       <c r="T30" t="n">
-        <v>2.204529128353409</v>
+        <v>2.355333934196053</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03598252113743326</v>
+        <v>0.03844397063432081</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4585313622540673</v>
+        <v>0.4898980301597599</v>
       </c>
       <c r="H31" t="n">
-        <v>4.07676065713162</v>
+        <v>4.355638849965868</v>
       </c>
       <c r="I31" t="n">
-        <v>13.78928860305868</v>
+        <v>14.73256985244078</v>
       </c>
       <c r="J31" t="n">
-        <v>32.41816731136255</v>
+        <v>34.63579073229502</v>
       </c>
       <c r="K31" t="n">
-        <v>53.27300736006344</v>
+        <v>56.9172438676521</v>
       </c>
       <c r="L31" t="n">
-        <v>68.17110816639106</v>
+        <v>72.83447622938832</v>
       </c>
       <c r="M31" t="n">
-        <v>71.87687526678982</v>
+        <v>76.79374303677035</v>
       </c>
       <c r="N31" t="n">
-        <v>70.16780382566108</v>
+        <v>74.96775946981131</v>
       </c>
       <c r="O31" t="n">
-        <v>64.81132382114764</v>
+        <v>69.24485975385409</v>
       </c>
       <c r="P31" t="n">
-        <v>55.45728403116462</v>
+        <v>59.25093993859494</v>
       </c>
       <c r="Q31" t="n">
-        <v>38.39574888838376</v>
+        <v>41.0222795981959</v>
       </c>
       <c r="R31" t="n">
-        <v>20.61723743371469</v>
+        <v>22.0275968833652</v>
       </c>
       <c r="S31" t="n">
-        <v>7.990951104009515</v>
+        <v>8.537586580147813</v>
       </c>
       <c r="T31" t="n">
-        <v>1.959179456903742</v>
+        <v>2.093200674318973</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02501080157749461</v>
+        <v>0.02672171073598693</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.0222170158976</v>
+        <v>1.092143621370318</v>
       </c>
       <c r="H32" t="n">
-        <v>10.4687800140613</v>
+        <v>11.18491586235877</v>
       </c>
       <c r="I32" t="n">
-        <v>39.40902150539227</v>
+        <v>42.10486696287924</v>
       </c>
       <c r="J32" t="n">
-        <v>86.75939145303902</v>
+        <v>92.69432468427914</v>
       </c>
       <c r="K32" t="n">
-        <v>130.0298377359845</v>
+        <v>138.9247641768847</v>
       </c>
       <c r="L32" t="n">
-        <v>161.3135117362607</v>
+        <v>172.3484545293967</v>
       </c>
       <c r="M32" t="n">
-        <v>179.4923635927296</v>
+        <v>191.770863655941</v>
       </c>
       <c r="N32" t="n">
-        <v>182.3967376891487</v>
+        <v>194.8739167201595</v>
       </c>
       <c r="O32" t="n">
-        <v>172.2320672373169</v>
+        <v>184.0139135851584</v>
       </c>
       <c r="P32" t="n">
-        <v>146.9960846573449</v>
+        <v>157.0516179325786</v>
       </c>
       <c r="Q32" t="n">
-        <v>110.387937775512</v>
+        <v>117.939224492254</v>
       </c>
       <c r="R32" t="n">
-        <v>64.21183962487768</v>
+        <v>68.60436675590331</v>
       </c>
       <c r="S32" t="n">
-        <v>23.29377024976659</v>
+        <v>24.88722277197616</v>
       </c>
       <c r="T32" t="n">
-        <v>4.474754987091747</v>
+        <v>4.780858702548571</v>
       </c>
       <c r="U32" t="n">
-        <v>0.081777361271808</v>
+        <v>0.08737148970962545</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5469343212889852</v>
+        <v>0.5843483536416759</v>
       </c>
       <c r="H33" t="n">
-        <v>5.282234102975201</v>
+        <v>5.643574889118293</v>
       </c>
       <c r="I33" t="n">
-        <v>18.83085272859007</v>
+        <v>20.11901129862788</v>
       </c>
       <c r="J33" t="n">
-        <v>51.67329918809664</v>
+        <v>55.20810476226028</v>
       </c>
       <c r="K33" t="n">
-        <v>88.31789871445865</v>
+        <v>94.35944445625256</v>
       </c>
       <c r="L33" t="n">
-        <v>118.7543139272422</v>
+        <v>126.8779177501367</v>
       </c>
       <c r="M33" t="n">
         <v>138.5806830739679</v>
@@ -33514,25 +33514,25 @@
         <v>128.05816928125</v>
       </c>
       <c r="O33" t="n">
-        <v>130.1295882761561</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P33" t="n">
-        <v>104.4404670187712</v>
+        <v>111.5849062318039</v>
       </c>
       <c r="Q33" t="n">
-        <v>69.81568634559048</v>
+        <v>74.59155475608482</v>
       </c>
       <c r="R33" t="n">
-        <v>33.95790461476701</v>
+        <v>36.28085655329635</v>
       </c>
       <c r="S33" t="n">
-        <v>10.15906513446865</v>
+        <v>10.85401437575656</v>
       </c>
       <c r="T33" t="n">
-        <v>2.204529128353409</v>
+        <v>2.355333934196053</v>
       </c>
       <c r="U33" t="n">
-        <v>0.03598252113743326</v>
+        <v>0.03844397063432081</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4585313622540673</v>
+        <v>0.4898980301597599</v>
       </c>
       <c r="H34" t="n">
-        <v>4.07676065713162</v>
+        <v>4.355638849965868</v>
       </c>
       <c r="I34" t="n">
-        <v>13.78928860305868</v>
+        <v>14.73256985244078</v>
       </c>
       <c r="J34" t="n">
-        <v>32.41816731136255</v>
+        <v>34.63579073229502</v>
       </c>
       <c r="K34" t="n">
-        <v>53.27300736006344</v>
+        <v>56.9172438676521</v>
       </c>
       <c r="L34" t="n">
-        <v>68.17110816639106</v>
+        <v>72.83447622938832</v>
       </c>
       <c r="M34" t="n">
-        <v>71.87687526678982</v>
+        <v>76.79374303677035</v>
       </c>
       <c r="N34" t="n">
-        <v>70.16780382566108</v>
+        <v>74.96775946981131</v>
       </c>
       <c r="O34" t="n">
-        <v>64.81132382114764</v>
+        <v>69.24485975385409</v>
       </c>
       <c r="P34" t="n">
-        <v>55.45728403116462</v>
+        <v>59.25093993859494</v>
       </c>
       <c r="Q34" t="n">
-        <v>38.39574888838376</v>
+        <v>41.0222795981959</v>
       </c>
       <c r="R34" t="n">
-        <v>20.61723743371469</v>
+        <v>22.0275968833652</v>
       </c>
       <c r="S34" t="n">
-        <v>7.990951104009515</v>
+        <v>8.537586580147813</v>
       </c>
       <c r="T34" t="n">
-        <v>1.959179456903742</v>
+        <v>2.093200674318973</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02501080157749461</v>
+        <v>0.02672171073598693</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.0222170158976</v>
+        <v>1.092143621370318</v>
       </c>
       <c r="H35" t="n">
-        <v>10.4687800140613</v>
+        <v>11.18491586235878</v>
       </c>
       <c r="I35" t="n">
-        <v>39.40902150539227</v>
+        <v>42.10486696287924</v>
       </c>
       <c r="J35" t="n">
-        <v>86.75939145303902</v>
+        <v>92.69432468427914</v>
       </c>
       <c r="K35" t="n">
-        <v>130.0298377359845</v>
+        <v>138.9247641768847</v>
       </c>
       <c r="L35" t="n">
-        <v>161.3135117362607</v>
+        <v>172.3484545293967</v>
       </c>
       <c r="M35" t="n">
-        <v>179.4923635927296</v>
+        <v>191.770863655941</v>
       </c>
       <c r="N35" t="n">
-        <v>182.3967376891487</v>
+        <v>194.8739167201595</v>
       </c>
       <c r="O35" t="n">
-        <v>172.2320672373169</v>
+        <v>184.0139135851583</v>
       </c>
       <c r="P35" t="n">
-        <v>146.9960846573449</v>
+        <v>157.0516179325786</v>
       </c>
       <c r="Q35" t="n">
-        <v>110.387937775512</v>
+        <v>117.939224492254</v>
       </c>
       <c r="R35" t="n">
-        <v>64.21183962487768</v>
+        <v>68.60436675590331</v>
       </c>
       <c r="S35" t="n">
-        <v>23.29377024976659</v>
+        <v>24.88722277197616</v>
       </c>
       <c r="T35" t="n">
-        <v>4.474754987091747</v>
+        <v>4.780858702548571</v>
       </c>
       <c r="U35" t="n">
-        <v>0.081777361271808</v>
+        <v>0.08737148970962544</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5469343212889852</v>
+        <v>0.5843483536416759</v>
       </c>
       <c r="H36" t="n">
-        <v>5.282234102975201</v>
+        <v>5.643574889118293</v>
       </c>
       <c r="I36" t="n">
-        <v>18.83085272859007</v>
+        <v>20.11901129862788</v>
       </c>
       <c r="J36" t="n">
-        <v>51.67329918809664</v>
+        <v>55.20810476226028</v>
       </c>
       <c r="K36" t="n">
-        <v>88.31789871445865</v>
+        <v>94.35944445625256</v>
       </c>
       <c r="L36" t="n">
-        <v>118.7543139272422</v>
+        <v>126.8779177501367</v>
       </c>
       <c r="M36" t="n">
         <v>138.5806830739679</v>
@@ -33751,25 +33751,25 @@
         <v>128.05816928125</v>
       </c>
       <c r="O36" t="n">
-        <v>130.1295882761561</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P36" t="n">
-        <v>104.4404670187712</v>
+        <v>111.5849062318039</v>
       </c>
       <c r="Q36" t="n">
-        <v>69.81568634559048</v>
+        <v>74.59155475608482</v>
       </c>
       <c r="R36" t="n">
-        <v>33.95790461476701</v>
+        <v>36.28085655329635</v>
       </c>
       <c r="S36" t="n">
-        <v>10.15906513446865</v>
+        <v>10.85401437575656</v>
       </c>
       <c r="T36" t="n">
-        <v>2.204529128353409</v>
+        <v>2.355333934196052</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03598252113743326</v>
+        <v>0.03844397063432081</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4585313622540673</v>
+        <v>0.4898980301597599</v>
       </c>
       <c r="H37" t="n">
-        <v>4.07676065713162</v>
+        <v>4.355638849965868</v>
       </c>
       <c r="I37" t="n">
-        <v>13.78928860305868</v>
+        <v>14.73256985244078</v>
       </c>
       <c r="J37" t="n">
-        <v>32.41816731136255</v>
+        <v>34.63579073229502</v>
       </c>
       <c r="K37" t="n">
-        <v>53.27300736006344</v>
+        <v>56.9172438676521</v>
       </c>
       <c r="L37" t="n">
-        <v>68.17110816639106</v>
+        <v>72.83447622938832</v>
       </c>
       <c r="M37" t="n">
-        <v>71.87687526678982</v>
+        <v>76.79374303677035</v>
       </c>
       <c r="N37" t="n">
-        <v>70.16780382566108</v>
+        <v>74.96775946981131</v>
       </c>
       <c r="O37" t="n">
-        <v>64.81132382114764</v>
+        <v>69.24485975385409</v>
       </c>
       <c r="P37" t="n">
-        <v>55.45728403116462</v>
+        <v>59.25093993859494</v>
       </c>
       <c r="Q37" t="n">
-        <v>38.39574888838376</v>
+        <v>41.02227959819589</v>
       </c>
       <c r="R37" t="n">
-        <v>20.61723743371469</v>
+        <v>22.0275968833652</v>
       </c>
       <c r="S37" t="n">
-        <v>7.990951104009515</v>
+        <v>8.537586580147812</v>
       </c>
       <c r="T37" t="n">
-        <v>1.959179456903742</v>
+        <v>2.093200674318973</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02501080157749461</v>
+        <v>0.02672171073598693</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.0222170158976</v>
+        <v>1.092143621370318</v>
       </c>
       <c r="H38" t="n">
-        <v>10.4687800140613</v>
+        <v>11.18491586235877</v>
       </c>
       <c r="I38" t="n">
-        <v>39.40902150539227</v>
+        <v>42.10486696287924</v>
       </c>
       <c r="J38" t="n">
-        <v>86.75939145303902</v>
+        <v>92.69432468427914</v>
       </c>
       <c r="K38" t="n">
-        <v>130.0298377359845</v>
+        <v>138.9247641768847</v>
       </c>
       <c r="L38" t="n">
-        <v>161.3135117362607</v>
+        <v>172.3484545293967</v>
       </c>
       <c r="M38" t="n">
-        <v>179.4923635927296</v>
+        <v>191.770863655941</v>
       </c>
       <c r="N38" t="n">
-        <v>182.3967376891487</v>
+        <v>194.8739167201595</v>
       </c>
       <c r="O38" t="n">
-        <v>172.2320672373169</v>
+        <v>184.0139135851584</v>
       </c>
       <c r="P38" t="n">
-        <v>146.9960846573449</v>
+        <v>157.0516179325786</v>
       </c>
       <c r="Q38" t="n">
-        <v>110.387937775512</v>
+        <v>117.939224492254</v>
       </c>
       <c r="R38" t="n">
-        <v>64.21183962487768</v>
+        <v>68.60436675590331</v>
       </c>
       <c r="S38" t="n">
-        <v>23.29377024976659</v>
+        <v>24.88722277197616</v>
       </c>
       <c r="T38" t="n">
-        <v>4.474754987091747</v>
+        <v>4.780858702548571</v>
       </c>
       <c r="U38" t="n">
-        <v>0.081777361271808</v>
+        <v>0.08737148970962545</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5469343212889852</v>
+        <v>0.5843483536416759</v>
       </c>
       <c r="H39" t="n">
-        <v>5.282234102975201</v>
+        <v>5.643574889118293</v>
       </c>
       <c r="I39" t="n">
-        <v>18.83085272859007</v>
+        <v>20.11901129862788</v>
       </c>
       <c r="J39" t="n">
-        <v>51.67329918809664</v>
+        <v>55.20810476226028</v>
       </c>
       <c r="K39" t="n">
-        <v>88.31789871445865</v>
+        <v>94.35944445625256</v>
       </c>
       <c r="L39" t="n">
-        <v>118.7543139272422</v>
+        <v>126.8779177501367</v>
       </c>
       <c r="M39" t="n">
         <v>138.5806830739679</v>
@@ -33988,25 +33988,25 @@
         <v>128.05816928125</v>
       </c>
       <c r="O39" t="n">
-        <v>130.1295882761561</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P39" t="n">
-        <v>104.4404670187712</v>
+        <v>111.5849062318039</v>
       </c>
       <c r="Q39" t="n">
-        <v>69.81568634559048</v>
+        <v>74.59155475608482</v>
       </c>
       <c r="R39" t="n">
-        <v>33.95790461476701</v>
+        <v>36.28085655329635</v>
       </c>
       <c r="S39" t="n">
-        <v>10.15906513446865</v>
+        <v>10.85401437575656</v>
       </c>
       <c r="T39" t="n">
-        <v>2.204529128353409</v>
+        <v>2.355333934196053</v>
       </c>
       <c r="U39" t="n">
-        <v>0.03598252113743326</v>
+        <v>0.03844397063432081</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4585313622540673</v>
+        <v>0.4898980301597599</v>
       </c>
       <c r="H40" t="n">
-        <v>4.07676065713162</v>
+        <v>4.355638849965868</v>
       </c>
       <c r="I40" t="n">
-        <v>13.78928860305868</v>
+        <v>14.73256985244078</v>
       </c>
       <c r="J40" t="n">
-        <v>32.41816731136255</v>
+        <v>34.63579073229502</v>
       </c>
       <c r="K40" t="n">
-        <v>53.27300736006344</v>
+        <v>56.9172438676521</v>
       </c>
       <c r="L40" t="n">
-        <v>68.17110816639106</v>
+        <v>72.83447622938832</v>
       </c>
       <c r="M40" t="n">
-        <v>71.87687526678982</v>
+        <v>76.79374303677035</v>
       </c>
       <c r="N40" t="n">
-        <v>70.16780382566108</v>
+        <v>74.96775946981131</v>
       </c>
       <c r="O40" t="n">
-        <v>64.81132382114764</v>
+        <v>69.24485975385409</v>
       </c>
       <c r="P40" t="n">
-        <v>55.45728403116462</v>
+        <v>59.25093993859494</v>
       </c>
       <c r="Q40" t="n">
-        <v>38.39574888838376</v>
+        <v>41.0222795981959</v>
       </c>
       <c r="R40" t="n">
-        <v>20.61723743371469</v>
+        <v>22.0275968833652</v>
       </c>
       <c r="S40" t="n">
-        <v>7.990951104009515</v>
+        <v>8.537586580147813</v>
       </c>
       <c r="T40" t="n">
-        <v>1.959179456903742</v>
+        <v>2.093200674318973</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02501080157749461</v>
+        <v>0.02672171073598693</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.0222170158976</v>
+        <v>1.092143621370318</v>
       </c>
       <c r="H41" t="n">
-        <v>10.4687800140613</v>
+        <v>11.18491586235877</v>
       </c>
       <c r="I41" t="n">
-        <v>39.40902150539227</v>
+        <v>42.10486696287924</v>
       </c>
       <c r="J41" t="n">
-        <v>86.75939145303902</v>
+        <v>92.69432468427914</v>
       </c>
       <c r="K41" t="n">
-        <v>130.0298377359845</v>
+        <v>138.9247641768847</v>
       </c>
       <c r="L41" t="n">
-        <v>161.3135117362607</v>
+        <v>172.3484545293967</v>
       </c>
       <c r="M41" t="n">
-        <v>179.4923635927296</v>
+        <v>191.770863655941</v>
       </c>
       <c r="N41" t="n">
-        <v>182.3967376891487</v>
+        <v>194.8739167201595</v>
       </c>
       <c r="O41" t="n">
-        <v>172.2320672373169</v>
+        <v>184.0139135851584</v>
       </c>
       <c r="P41" t="n">
-        <v>146.9960846573449</v>
+        <v>157.0516179325786</v>
       </c>
       <c r="Q41" t="n">
-        <v>110.387937775512</v>
+        <v>117.939224492254</v>
       </c>
       <c r="R41" t="n">
-        <v>64.21183962487768</v>
+        <v>68.60436675590331</v>
       </c>
       <c r="S41" t="n">
-        <v>23.29377024976659</v>
+        <v>24.88722277197616</v>
       </c>
       <c r="T41" t="n">
-        <v>4.474754987091747</v>
+        <v>4.780858702548571</v>
       </c>
       <c r="U41" t="n">
-        <v>0.081777361271808</v>
+        <v>0.08737148970962545</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5469343212889852</v>
+        <v>0.5843483536416759</v>
       </c>
       <c r="H42" t="n">
-        <v>5.282234102975201</v>
+        <v>5.643574889118293</v>
       </c>
       <c r="I42" t="n">
-        <v>18.83085272859007</v>
+        <v>20.11901129862788</v>
       </c>
       <c r="J42" t="n">
-        <v>51.67329918809664</v>
+        <v>55.20810476226028</v>
       </c>
       <c r="K42" t="n">
-        <v>88.31789871445865</v>
+        <v>94.35944445625256</v>
       </c>
       <c r="L42" t="n">
-        <v>118.7543139272422</v>
+        <v>126.8779177501367</v>
       </c>
       <c r="M42" t="n">
         <v>138.5806830739679</v>
@@ -34225,25 +34225,25 @@
         <v>128.05816928125</v>
       </c>
       <c r="O42" t="n">
-        <v>130.1295882761561</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P42" t="n">
-        <v>104.4404670187712</v>
+        <v>111.5849062318039</v>
       </c>
       <c r="Q42" t="n">
-        <v>69.81568634559048</v>
+        <v>74.59155475608482</v>
       </c>
       <c r="R42" t="n">
-        <v>33.95790461476701</v>
+        <v>36.28085655329635</v>
       </c>
       <c r="S42" t="n">
-        <v>10.15906513446865</v>
+        <v>10.85401437575656</v>
       </c>
       <c r="T42" t="n">
-        <v>2.204529128353409</v>
+        <v>2.355333934196053</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03598252113743326</v>
+        <v>0.03844397063432081</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4585313622540673</v>
+        <v>0.4898980301597599</v>
       </c>
       <c r="H43" t="n">
-        <v>4.07676065713162</v>
+        <v>4.355638849965868</v>
       </c>
       <c r="I43" t="n">
-        <v>13.78928860305868</v>
+        <v>14.73256985244078</v>
       </c>
       <c r="J43" t="n">
-        <v>32.41816731136255</v>
+        <v>34.63579073229502</v>
       </c>
       <c r="K43" t="n">
-        <v>53.27300736006344</v>
+        <v>56.9172438676521</v>
       </c>
       <c r="L43" t="n">
-        <v>68.17110816639106</v>
+        <v>72.83447622938832</v>
       </c>
       <c r="M43" t="n">
-        <v>71.87687526678982</v>
+        <v>76.79374303677035</v>
       </c>
       <c r="N43" t="n">
-        <v>70.16780382566108</v>
+        <v>74.96775946981131</v>
       </c>
       <c r="O43" t="n">
-        <v>64.81132382114764</v>
+        <v>69.24485975385409</v>
       </c>
       <c r="P43" t="n">
-        <v>55.45728403116462</v>
+        <v>59.25093993859494</v>
       </c>
       <c r="Q43" t="n">
-        <v>38.39574888838376</v>
+        <v>41.0222795981959</v>
       </c>
       <c r="R43" t="n">
-        <v>20.61723743371469</v>
+        <v>22.0275968833652</v>
       </c>
       <c r="S43" t="n">
-        <v>7.990951104009515</v>
+        <v>8.537586580147813</v>
       </c>
       <c r="T43" t="n">
-        <v>1.959179456903742</v>
+        <v>2.093200674318973</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02501080157749461</v>
+        <v>0.02672171073598693</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.162836312681475</v>
+        <v>1.092143621370318</v>
       </c>
       <c r="H44" t="n">
-        <v>11.90889738724916</v>
+        <v>11.18491586235877</v>
       </c>
       <c r="I44" t="n">
-        <v>44.83024694465261</v>
+        <v>42.10486696287924</v>
       </c>
       <c r="J44" t="n">
-        <v>98.69427849344945</v>
+        <v>92.69432468427914</v>
       </c>
       <c r="K44" t="n">
-        <v>147.9171396092563</v>
+        <v>138.9247641768847</v>
       </c>
       <c r="L44" t="n">
-        <v>183.5042914134821</v>
+        <v>172.3484545293967</v>
       </c>
       <c r="M44" t="n">
-        <v>204.1838816891312</v>
+        <v>191.770863655941</v>
       </c>
       <c r="N44" t="n">
-        <v>207.4877903625375</v>
+        <v>194.8739167201595</v>
       </c>
       <c r="O44" t="n">
-        <v>195.9248367783111</v>
+        <v>184.0139135851584</v>
       </c>
       <c r="P44" t="n">
-        <v>167.2173153089871</v>
+        <v>157.0516179325786</v>
       </c>
       <c r="Q44" t="n">
-        <v>125.5732398610817</v>
+        <v>117.939224492254</v>
       </c>
       <c r="R44" t="n">
-        <v>73.04501652647778</v>
+        <v>68.60436675590331</v>
       </c>
       <c r="S44" t="n">
-        <v>26.49813247522914</v>
+        <v>24.88722277197616</v>
       </c>
       <c r="T44" t="n">
-        <v>5.09031595876316</v>
+        <v>4.780858702548571</v>
       </c>
       <c r="U44" t="n">
-        <v>0.093026905014518</v>
+        <v>0.08737148970962545</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6221722780540558</v>
+        <v>0.5843483536416759</v>
       </c>
       <c r="H45" t="n">
-        <v>6.00887436962733</v>
+        <v>5.643574889118293</v>
       </c>
       <c r="I45" t="n">
-        <v>21.42128238036991</v>
+        <v>20.11901129862788</v>
       </c>
       <c r="J45" t="n">
-        <v>58.78163614720359</v>
+        <v>55.20810476226028</v>
       </c>
       <c r="K45" t="n">
-        <v>100.4671787768253</v>
+        <v>94.35944445625256</v>
       </c>
       <c r="L45" t="n">
-        <v>135.0905202853774</v>
+        <v>126.8779177501367</v>
       </c>
       <c r="M45" t="n">
         <v>138.5806830739679</v>
@@ -34465,22 +34465,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P45" t="n">
-        <v>118.8076168505153</v>
+        <v>111.5849062318039</v>
       </c>
       <c r="Q45" t="n">
-        <v>79.41974552844405</v>
+        <v>74.59155475608482</v>
       </c>
       <c r="R45" t="n">
-        <v>38.62925775497025</v>
+        <v>36.28085655329635</v>
       </c>
       <c r="S45" t="n">
-        <v>11.55657718227599</v>
+        <v>10.85401437575656</v>
       </c>
       <c r="T45" t="n">
-        <v>2.507790892682794</v>
+        <v>2.355333934196053</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04093238671408263</v>
+        <v>0.03844397063432081</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5216083377991293</v>
+        <v>0.4898980301597599</v>
       </c>
       <c r="H46" t="n">
-        <v>4.637572312432262</v>
+        <v>4.355638849965868</v>
       </c>
       <c r="I46" t="n">
-        <v>15.68618528581382</v>
+        <v>14.73256985244078</v>
       </c>
       <c r="J46" t="n">
-        <v>36.87770948239844</v>
+        <v>34.63579073229502</v>
       </c>
       <c r="K46" t="n">
-        <v>60.60140506429882</v>
+        <v>56.9172438676521</v>
       </c>
       <c r="L46" t="n">
-        <v>77.54893414879056</v>
+        <v>72.83447622938832</v>
       </c>
       <c r="M46" t="n">
-        <v>81.7644778970035</v>
+        <v>76.79374303677035</v>
       </c>
       <c r="N46" t="n">
-        <v>79.82030136520682</v>
+        <v>74.96775946981131</v>
       </c>
       <c r="O46" t="n">
-        <v>73.72696760091696</v>
+        <v>69.24485975385409</v>
       </c>
       <c r="P46" t="n">
-        <v>63.08615750981466</v>
+        <v>59.25093993859494</v>
       </c>
       <c r="Q46" t="n">
-        <v>43.6775854497071</v>
+        <v>41.0222795981959</v>
       </c>
       <c r="R46" t="n">
-        <v>23.45340762504085</v>
+        <v>22.0275968833652</v>
       </c>
       <c r="S46" t="n">
-        <v>9.090210759644821</v>
+        <v>8.537586580147813</v>
       </c>
       <c r="T46" t="n">
-        <v>2.228690170596279</v>
+        <v>2.093200674318973</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02845136387995254</v>
+        <v>0.02672171073598693</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
